--- a/gemeinden_XLSX.xlsx
+++ b/gemeinden_XLSX.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10510"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10715"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michaelhuber/Desktop/gemeinde_scraper/github/oe_gemeinden/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michaelhuber/Desktop/projects/gemeinde_scraper/github/oe_gemeinden/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8995A6AF-4177-9140-9B6F-2748AE236F3C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B14BD1C9-9BD0-1646-90D8-6F610F93EF52}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="880" windowWidth="24960" windowHeight="23120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="12220" windowWidth="19200" windowHeight="11780" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16804,9 +16804,6 @@
     <t>office@zellamsee.eu</t>
   </si>
   <si>
-    <t>office@icomedias.com</t>
-  </si>
-  <si>
     <t>gemeinde@gde-frauental.at</t>
   </si>
   <si>
@@ -18824,6 +18821,9 @@
   </si>
   <si>
     <t>Mail</t>
+  </si>
+  <si>
+    <t>buergermeisterin.kahr@stadt.graz.at</t>
   </si>
 </sst>
 </file>
@@ -19262,8 +19262,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E2095"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2037" zoomScale="90" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" topLeftCell="A1424" zoomScale="90" workbookViewId="0">
+      <selection activeCell="E1435" sqref="E1435"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -19279,13 +19279,13 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>6264</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>6265</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>6266</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>6267</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -28632,7 +28632,7 @@
         <v>3622</v>
       </c>
       <c r="D551" s="2" t="s">
-        <v>6253</v>
+        <v>6252</v>
       </c>
       <c r="E551" t="s">
         <v>4401</v>
@@ -33409,10 +33409,10 @@
         <v>2851</v>
       </c>
       <c r="D832" s="2" t="s">
+        <v>6256</v>
+      </c>
+      <c r="E832" t="s">
         <v>6257</v>
-      </c>
-      <c r="E832" t="s">
-        <v>6258</v>
       </c>
     </row>
     <row r="833" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -34984,7 +34984,7 @@
         <v>40445</v>
       </c>
       <c r="B925" s="5" t="s">
-        <v>6254</v>
+        <v>6253</v>
       </c>
       <c r="C925" s="3">
         <v>5122</v>
@@ -43663,7 +43663,7 @@
         <v>3514</v>
       </c>
       <c r="E1435" t="s">
-        <v>5594</v>
+        <v>6267</v>
       </c>
     </row>
     <row r="1436" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -43680,7 +43680,7 @@
         <v>3515</v>
       </c>
       <c r="E1436" t="s">
-        <v>5595</v>
+        <v>5594</v>
       </c>
     </row>
     <row r="1437" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -43697,7 +43697,7 @@
         <v>3516</v>
       </c>
       <c r="E1437" t="s">
-        <v>5596</v>
+        <v>5595</v>
       </c>
     </row>
     <row r="1438" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -43714,7 +43714,7 @@
         <v>3517</v>
       </c>
       <c r="E1438" t="s">
-        <v>5597</v>
+        <v>5596</v>
       </c>
     </row>
     <row r="1439" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -43731,7 +43731,7 @@
         <v>3518</v>
       </c>
       <c r="E1439" t="s">
-        <v>5598</v>
+        <v>5597</v>
       </c>
     </row>
     <row r="1440" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -43748,7 +43748,7 @@
         <v>3519</v>
       </c>
       <c r="E1440" t="s">
-        <v>5599</v>
+        <v>5598</v>
       </c>
     </row>
     <row r="1441" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -43765,7 +43765,7 @@
         <v>3520</v>
       </c>
       <c r="E1441" t="s">
-        <v>5600</v>
+        <v>5599</v>
       </c>
     </row>
     <row r="1442" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -43782,7 +43782,7 @@
         <v>3521</v>
       </c>
       <c r="E1442" t="s">
-        <v>5601</v>
+        <v>5600</v>
       </c>
     </row>
     <row r="1443" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -43799,7 +43799,7 @@
         <v>3522</v>
       </c>
       <c r="E1443" t="s">
-        <v>5602</v>
+        <v>5601</v>
       </c>
     </row>
     <row r="1444" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -43816,7 +43816,7 @@
         <v>3523</v>
       </c>
       <c r="E1444" t="s">
-        <v>5603</v>
+        <v>5602</v>
       </c>
     </row>
     <row r="1445" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -43833,7 +43833,7 @@
         <v>3524</v>
       </c>
       <c r="E1445" t="s">
-        <v>5604</v>
+        <v>5603</v>
       </c>
     </row>
     <row r="1446" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -43850,7 +43850,7 @@
         <v>3525</v>
       </c>
       <c r="E1446" t="s">
-        <v>5605</v>
+        <v>5604</v>
       </c>
     </row>
     <row r="1447" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -43867,7 +43867,7 @@
         <v>3526</v>
       </c>
       <c r="E1447" t="s">
-        <v>5606</v>
+        <v>5605</v>
       </c>
     </row>
     <row r="1448" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -43884,7 +43884,7 @@
         <v>3527</v>
       </c>
       <c r="E1448" t="s">
-        <v>5607</v>
+        <v>5606</v>
       </c>
     </row>
     <row r="1449" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -43901,7 +43901,7 @@
         <v>3528</v>
       </c>
       <c r="E1449" t="s">
-        <v>5608</v>
+        <v>5607</v>
       </c>
     </row>
     <row r="1450" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -43918,7 +43918,7 @@
         <v>3529</v>
       </c>
       <c r="E1450" t="s">
-        <v>5609</v>
+        <v>5608</v>
       </c>
     </row>
     <row r="1451" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -43935,7 +43935,7 @@
         <v>3530</v>
       </c>
       <c r="E1451" t="s">
-        <v>5610</v>
+        <v>5609</v>
       </c>
     </row>
     <row r="1452" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -43952,7 +43952,7 @@
         <v>3531</v>
       </c>
       <c r="E1452" t="s">
-        <v>5611</v>
+        <v>5610</v>
       </c>
     </row>
     <row r="1453" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -43969,7 +43969,7 @@
         <v>3532</v>
       </c>
       <c r="E1453" t="s">
-        <v>5612</v>
+        <v>5611</v>
       </c>
     </row>
     <row r="1454" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -43986,7 +43986,7 @@
         <v>3533</v>
       </c>
       <c r="E1454" t="s">
-        <v>5613</v>
+        <v>5612</v>
       </c>
     </row>
     <row r="1455" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -44003,7 +44003,7 @@
         <v>3534</v>
       </c>
       <c r="E1455" t="s">
-        <v>5614</v>
+        <v>5613</v>
       </c>
     </row>
     <row r="1456" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -44020,7 +44020,7 @@
         <v>3535</v>
       </c>
       <c r="E1456" t="s">
-        <v>5615</v>
+        <v>5614</v>
       </c>
     </row>
     <row r="1457" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -44037,7 +44037,7 @@
         <v>3536</v>
       </c>
       <c r="E1457" t="s">
-        <v>5616</v>
+        <v>5615</v>
       </c>
     </row>
     <row r="1458" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -44054,7 +44054,7 @@
         <v>3537</v>
       </c>
       <c r="E1458" t="s">
-        <v>5617</v>
+        <v>5616</v>
       </c>
     </row>
     <row r="1459" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -44071,7 +44071,7 @@
         <v>3538</v>
       </c>
       <c r="E1459" t="s">
-        <v>5618</v>
+        <v>5617</v>
       </c>
     </row>
     <row r="1460" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -44088,7 +44088,7 @@
         <v>3539</v>
       </c>
       <c r="E1460" t="s">
-        <v>5619</v>
+        <v>5618</v>
       </c>
     </row>
     <row r="1461" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -44105,7 +44105,7 @@
         <v>3540</v>
       </c>
       <c r="E1461" t="s">
-        <v>5620</v>
+        <v>5619</v>
       </c>
     </row>
     <row r="1462" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -44122,7 +44122,7 @@
         <v>3541</v>
       </c>
       <c r="E1462" t="s">
-        <v>5621</v>
+        <v>5620</v>
       </c>
     </row>
     <row r="1463" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -44139,7 +44139,7 @@
         <v>3542</v>
       </c>
       <c r="E1463" t="s">
-        <v>5622</v>
+        <v>5621</v>
       </c>
     </row>
     <row r="1464" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -44156,7 +44156,7 @@
         <v>3543</v>
       </c>
       <c r="E1464" t="s">
-        <v>5623</v>
+        <v>5622</v>
       </c>
     </row>
     <row r="1465" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -44173,7 +44173,7 @@
         <v>3544</v>
       </c>
       <c r="E1465" t="s">
-        <v>5624</v>
+        <v>5623</v>
       </c>
     </row>
     <row r="1466" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -44190,7 +44190,7 @@
         <v>3545</v>
       </c>
       <c r="E1466" t="s">
-        <v>5625</v>
+        <v>5624</v>
       </c>
     </row>
     <row r="1467" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -44207,7 +44207,7 @@
         <v>3546</v>
       </c>
       <c r="E1467" t="s">
-        <v>5626</v>
+        <v>5625</v>
       </c>
     </row>
     <row r="1468" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -44224,7 +44224,7 @@
         <v>3547</v>
       </c>
       <c r="E1468" t="s">
-        <v>5627</v>
+        <v>5626</v>
       </c>
     </row>
     <row r="1469" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -44241,7 +44241,7 @@
         <v>3548</v>
       </c>
       <c r="E1469" t="s">
-        <v>5628</v>
+        <v>5627</v>
       </c>
     </row>
     <row r="1470" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -44249,7 +44249,7 @@
         <v>60651</v>
       </c>
       <c r="B1470" s="5" t="s">
-        <v>6255</v>
+        <v>6254</v>
       </c>
       <c r="C1470" s="3">
         <v>8124</v>
@@ -44258,7 +44258,7 @@
         <v>3549</v>
       </c>
       <c r="E1470" t="s">
-        <v>5629</v>
+        <v>5628</v>
       </c>
     </row>
     <row r="1471" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -44275,7 +44275,7 @@
         <v>3550</v>
       </c>
       <c r="E1471" t="s">
-        <v>5630</v>
+        <v>5629</v>
       </c>
     </row>
     <row r="1472" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -44292,7 +44292,7 @@
         <v>3551</v>
       </c>
       <c r="E1472" t="s">
-        <v>5631</v>
+        <v>5630</v>
       </c>
     </row>
     <row r="1473" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -44309,7 +44309,7 @@
         <v>3552</v>
       </c>
       <c r="E1473" t="s">
-        <v>5632</v>
+        <v>5631</v>
       </c>
     </row>
     <row r="1474" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -44326,7 +44326,7 @@
         <v>3553</v>
       </c>
       <c r="E1474" t="s">
-        <v>5633</v>
+        <v>5632</v>
       </c>
     </row>
     <row r="1475" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -44343,7 +44343,7 @@
         <v>3554</v>
       </c>
       <c r="E1475" t="s">
-        <v>5634</v>
+        <v>5633</v>
       </c>
     </row>
     <row r="1476" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -44360,7 +44360,7 @@
         <v>3555</v>
       </c>
       <c r="E1476" t="s">
-        <v>5635</v>
+        <v>5634</v>
       </c>
     </row>
     <row r="1477" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -44377,7 +44377,7 @@
         <v>3556</v>
       </c>
       <c r="E1477" t="s">
-        <v>5636</v>
+        <v>5635</v>
       </c>
     </row>
     <row r="1478" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -44394,7 +44394,7 @@
         <v>3557</v>
       </c>
       <c r="E1478" t="s">
-        <v>5637</v>
+        <v>5636</v>
       </c>
     </row>
     <row r="1479" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -44411,7 +44411,7 @@
         <v>3558</v>
       </c>
       <c r="E1479" t="s">
-        <v>5638</v>
+        <v>5637</v>
       </c>
     </row>
     <row r="1480" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -44428,7 +44428,7 @@
         <v>3559</v>
       </c>
       <c r="E1480" t="s">
-        <v>5639</v>
+        <v>5638</v>
       </c>
     </row>
     <row r="1481" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -44445,7 +44445,7 @@
         <v>3560</v>
       </c>
       <c r="E1481" t="s">
-        <v>5640</v>
+        <v>5639</v>
       </c>
     </row>
     <row r="1482" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -44462,7 +44462,7 @@
         <v>3561</v>
       </c>
       <c r="E1482" t="s">
-        <v>5641</v>
+        <v>5640</v>
       </c>
     </row>
     <row r="1483" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -44479,7 +44479,7 @@
         <v>3562</v>
       </c>
       <c r="E1483" t="s">
-        <v>5642</v>
+        <v>5641</v>
       </c>
     </row>
     <row r="1484" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -44496,7 +44496,7 @@
         <v>3563</v>
       </c>
       <c r="E1484" t="s">
-        <v>5643</v>
+        <v>5642</v>
       </c>
     </row>
     <row r="1485" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -44513,7 +44513,7 @@
         <v>3564</v>
       </c>
       <c r="E1485" t="s">
-        <v>5644</v>
+        <v>5643</v>
       </c>
     </row>
     <row r="1486" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -44530,7 +44530,7 @@
         <v>3565</v>
       </c>
       <c r="E1486" t="s">
-        <v>5645</v>
+        <v>5644</v>
       </c>
     </row>
     <row r="1487" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -44547,7 +44547,7 @@
         <v>3566</v>
       </c>
       <c r="E1487" t="s">
-        <v>5646</v>
+        <v>5645</v>
       </c>
     </row>
     <row r="1488" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -44564,7 +44564,7 @@
         <v>3567</v>
       </c>
       <c r="E1488" t="s">
-        <v>5647</v>
+        <v>5646</v>
       </c>
     </row>
     <row r="1489" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -44581,7 +44581,7 @@
         <v>3568</v>
       </c>
       <c r="E1489" t="s">
-        <v>5648</v>
+        <v>5647</v>
       </c>
     </row>
     <row r="1490" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -44598,7 +44598,7 @@
         <v>3569</v>
       </c>
       <c r="E1490" t="s">
-        <v>5649</v>
+        <v>5648</v>
       </c>
     </row>
     <row r="1491" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -44615,7 +44615,7 @@
         <v>3570</v>
       </c>
       <c r="E1491" t="s">
-        <v>5650</v>
+        <v>5649</v>
       </c>
     </row>
     <row r="1492" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -44632,7 +44632,7 @@
         <v>3571</v>
       </c>
       <c r="E1492" t="s">
-        <v>5651</v>
+        <v>5650</v>
       </c>
     </row>
     <row r="1493" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -44649,7 +44649,7 @@
         <v>3572</v>
       </c>
       <c r="E1493" t="s">
-        <v>5652</v>
+        <v>5651</v>
       </c>
     </row>
     <row r="1494" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -44666,7 +44666,7 @@
         <v>3573</v>
       </c>
       <c r="E1494" t="s">
-        <v>5653</v>
+        <v>5652</v>
       </c>
     </row>
     <row r="1495" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -44683,7 +44683,7 @@
         <v>3574</v>
       </c>
       <c r="E1495" t="s">
-        <v>5654</v>
+        <v>5653</v>
       </c>
     </row>
     <row r="1496" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -44700,7 +44700,7 @@
         <v>3575</v>
       </c>
       <c r="E1496" t="s">
-        <v>5655</v>
+        <v>5654</v>
       </c>
     </row>
     <row r="1497" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -44717,7 +44717,7 @@
         <v>3576</v>
       </c>
       <c r="E1497" t="s">
-        <v>5656</v>
+        <v>5655</v>
       </c>
     </row>
     <row r="1498" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -44734,7 +44734,7 @@
         <v>3577</v>
       </c>
       <c r="E1498" t="s">
-        <v>5657</v>
+        <v>5656</v>
       </c>
     </row>
     <row r="1499" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -44751,7 +44751,7 @@
         <v>3578</v>
       </c>
       <c r="E1499" t="s">
-        <v>5658</v>
+        <v>5657</v>
       </c>
     </row>
     <row r="1500" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -44768,7 +44768,7 @@
         <v>3579</v>
       </c>
       <c r="E1500" t="s">
-        <v>5659</v>
+        <v>5658</v>
       </c>
     </row>
     <row r="1501" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -44785,7 +44785,7 @@
         <v>3580</v>
       </c>
       <c r="E1501" t="s">
-        <v>5660</v>
+        <v>5659</v>
       </c>
     </row>
     <row r="1502" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -44802,7 +44802,7 @@
         <v>3581</v>
       </c>
       <c r="E1502" t="s">
-        <v>5661</v>
+        <v>5660</v>
       </c>
     </row>
     <row r="1503" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -44819,7 +44819,7 @@
         <v>3582</v>
       </c>
       <c r="E1503" t="s">
-        <v>5662</v>
+        <v>5661</v>
       </c>
     </row>
     <row r="1504" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -44836,7 +44836,7 @@
         <v>3583</v>
       </c>
       <c r="E1504" t="s">
-        <v>5663</v>
+        <v>5662</v>
       </c>
     </row>
     <row r="1505" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -44853,7 +44853,7 @@
         <v>3584</v>
       </c>
       <c r="E1505" t="s">
-        <v>5664</v>
+        <v>5663</v>
       </c>
     </row>
     <row r="1506" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -44870,7 +44870,7 @@
         <v>3585</v>
       </c>
       <c r="E1506" t="s">
-        <v>5665</v>
+        <v>5664</v>
       </c>
     </row>
     <row r="1507" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -44887,7 +44887,7 @@
         <v>3586</v>
       </c>
       <c r="E1507" t="s">
-        <v>5666</v>
+        <v>5665</v>
       </c>
     </row>
     <row r="1508" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -44904,7 +44904,7 @@
         <v>3587</v>
       </c>
       <c r="E1508" t="s">
-        <v>5667</v>
+        <v>5666</v>
       </c>
     </row>
     <row r="1509" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -44921,7 +44921,7 @@
         <v>3588</v>
       </c>
       <c r="E1509" t="s">
-        <v>5668</v>
+        <v>5667</v>
       </c>
     </row>
     <row r="1510" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -44938,7 +44938,7 @@
         <v>3589</v>
       </c>
       <c r="E1510" t="s">
-        <v>5669</v>
+        <v>5668</v>
       </c>
     </row>
     <row r="1511" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -44955,7 +44955,7 @@
         <v>3590</v>
       </c>
       <c r="E1511" t="s">
-        <v>5670</v>
+        <v>5669</v>
       </c>
     </row>
     <row r="1512" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -44972,7 +44972,7 @@
         <v>3591</v>
       </c>
       <c r="E1512" t="s">
-        <v>5671</v>
+        <v>5670</v>
       </c>
     </row>
     <row r="1513" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -44989,7 +44989,7 @@
         <v>3592</v>
       </c>
       <c r="E1513" t="s">
-        <v>5672</v>
+        <v>5671</v>
       </c>
     </row>
     <row r="1514" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -45006,7 +45006,7 @@
         <v>3593</v>
       </c>
       <c r="E1514" t="s">
-        <v>5673</v>
+        <v>5672</v>
       </c>
     </row>
     <row r="1515" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -45023,7 +45023,7 @@
         <v>3594</v>
       </c>
       <c r="E1515" t="s">
-        <v>5674</v>
+        <v>5673</v>
       </c>
     </row>
     <row r="1516" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -45040,7 +45040,7 @@
         <v>3595</v>
       </c>
       <c r="E1516" t="s">
-        <v>5675</v>
+        <v>5674</v>
       </c>
     </row>
     <row r="1517" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -45057,7 +45057,7 @@
         <v>3596</v>
       </c>
       <c r="E1517" t="s">
-        <v>5676</v>
+        <v>5675</v>
       </c>
     </row>
     <row r="1518" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -45074,7 +45074,7 @@
         <v>3597</v>
       </c>
       <c r="E1518" t="s">
-        <v>5677</v>
+        <v>5676</v>
       </c>
     </row>
     <row r="1519" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -45091,7 +45091,7 @@
         <v>3598</v>
       </c>
       <c r="E1519" t="s">
-        <v>5678</v>
+        <v>5677</v>
       </c>
     </row>
     <row r="1520" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -45108,7 +45108,7 @@
         <v>3599</v>
       </c>
       <c r="E1520" t="s">
-        <v>5679</v>
+        <v>5678</v>
       </c>
     </row>
     <row r="1521" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -45125,7 +45125,7 @@
         <v>3600</v>
       </c>
       <c r="E1521" t="s">
-        <v>5680</v>
+        <v>5679</v>
       </c>
     </row>
     <row r="1522" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -45142,7 +45142,7 @@
         <v>3601</v>
       </c>
       <c r="E1522" t="s">
-        <v>5681</v>
+        <v>5680</v>
       </c>
     </row>
     <row r="1523" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -45159,7 +45159,7 @@
         <v>3602</v>
       </c>
       <c r="E1523" t="s">
-        <v>5682</v>
+        <v>5681</v>
       </c>
     </row>
     <row r="1524" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -45176,7 +45176,7 @@
         <v>3603</v>
       </c>
       <c r="E1524" t="s">
-        <v>5683</v>
+        <v>5682</v>
       </c>
     </row>
     <row r="1525" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -45193,7 +45193,7 @@
         <v>3604</v>
       </c>
       <c r="E1525" t="s">
-        <v>5684</v>
+        <v>5683</v>
       </c>
     </row>
     <row r="1526" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -45210,7 +45210,7 @@
         <v>3605</v>
       </c>
       <c r="E1526" t="s">
-        <v>5685</v>
+        <v>5684</v>
       </c>
     </row>
     <row r="1527" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -45227,7 +45227,7 @@
         <v>3606</v>
       </c>
       <c r="E1527" t="s">
-        <v>5686</v>
+        <v>5685</v>
       </c>
     </row>
     <row r="1528" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -45244,7 +45244,7 @@
         <v>3607</v>
       </c>
       <c r="E1528" t="s">
-        <v>5687</v>
+        <v>5686</v>
       </c>
     </row>
     <row r="1529" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -45261,7 +45261,7 @@
         <v>3608</v>
       </c>
       <c r="E1529" t="s">
-        <v>5688</v>
+        <v>5687</v>
       </c>
     </row>
     <row r="1530" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -45278,7 +45278,7 @@
         <v>3609</v>
       </c>
       <c r="E1530" t="s">
-        <v>5689</v>
+        <v>5688</v>
       </c>
     </row>
     <row r="1531" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -45295,7 +45295,7 @@
         <v>3610</v>
       </c>
       <c r="E1531" t="s">
-        <v>5690</v>
+        <v>5689</v>
       </c>
     </row>
     <row r="1532" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -45312,7 +45312,7 @@
         <v>3611</v>
       </c>
       <c r="E1532" t="s">
-        <v>5691</v>
+        <v>5690</v>
       </c>
     </row>
     <row r="1533" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -45329,7 +45329,7 @@
         <v>3612</v>
       </c>
       <c r="E1533" t="s">
-        <v>5692</v>
+        <v>5691</v>
       </c>
     </row>
     <row r="1534" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -45346,7 +45346,7 @@
         <v>3613</v>
       </c>
       <c r="E1534" t="s">
-        <v>5693</v>
+        <v>5692</v>
       </c>
     </row>
     <row r="1535" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -45363,7 +45363,7 @@
         <v>3614</v>
       </c>
       <c r="E1535" t="s">
-        <v>5694</v>
+        <v>5693</v>
       </c>
     </row>
     <row r="1536" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -45380,7 +45380,7 @@
         <v>3615</v>
       </c>
       <c r="E1536" t="s">
-        <v>5695</v>
+        <v>5694</v>
       </c>
     </row>
     <row r="1537" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -45397,7 +45397,7 @@
         <v>3616</v>
       </c>
       <c r="E1537" t="s">
-        <v>5696</v>
+        <v>5695</v>
       </c>
     </row>
     <row r="1538" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -45414,7 +45414,7 @@
         <v>3617</v>
       </c>
       <c r="E1538" t="s">
-        <v>5697</v>
+        <v>5696</v>
       </c>
     </row>
     <row r="1539" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -45431,7 +45431,7 @@
         <v>3618</v>
       </c>
       <c r="E1539" t="s">
-        <v>5698</v>
+        <v>5697</v>
       </c>
     </row>
     <row r="1540" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -45448,7 +45448,7 @@
         <v>3619</v>
       </c>
       <c r="E1540" t="s">
-        <v>5699</v>
+        <v>5698</v>
       </c>
     </row>
     <row r="1541" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -45465,7 +45465,7 @@
         <v>3620</v>
       </c>
       <c r="E1541" t="s">
-        <v>5700</v>
+        <v>5699</v>
       </c>
     </row>
     <row r="1542" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -45482,7 +45482,7 @@
         <v>3621</v>
       </c>
       <c r="E1542" t="s">
-        <v>5701</v>
+        <v>5700</v>
       </c>
     </row>
     <row r="1543" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -45499,7 +45499,7 @@
         <v>3622</v>
       </c>
       <c r="E1543" t="s">
-        <v>5702</v>
+        <v>5701</v>
       </c>
     </row>
     <row r="1544" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -45516,7 +45516,7 @@
         <v>3623</v>
       </c>
       <c r="E1544" t="s">
-        <v>5703</v>
+        <v>5702</v>
       </c>
     </row>
     <row r="1545" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -45533,7 +45533,7 @@
         <v>3624</v>
       </c>
       <c r="E1545" t="s">
-        <v>5704</v>
+        <v>5703</v>
       </c>
     </row>
     <row r="1546" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -45550,7 +45550,7 @@
         <v>3625</v>
       </c>
       <c r="E1546" t="s">
-        <v>5705</v>
+        <v>5704</v>
       </c>
     </row>
     <row r="1547" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -45567,7 +45567,7 @@
         <v>3626</v>
       </c>
       <c r="E1547" t="s">
-        <v>5706</v>
+        <v>5705</v>
       </c>
     </row>
     <row r="1548" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -45584,7 +45584,7 @@
         <v>3627</v>
       </c>
       <c r="E1548" t="s">
-        <v>5707</v>
+        <v>5706</v>
       </c>
     </row>
     <row r="1549" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -45601,7 +45601,7 @@
         <v>3628</v>
       </c>
       <c r="E1549" t="s">
-        <v>5708</v>
+        <v>5707</v>
       </c>
     </row>
     <row r="1550" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -45618,7 +45618,7 @@
         <v>3629</v>
       </c>
       <c r="E1550" t="s">
-        <v>5709</v>
+        <v>5708</v>
       </c>
     </row>
     <row r="1551" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -45635,7 +45635,7 @@
         <v>3630</v>
       </c>
       <c r="E1551" t="s">
-        <v>5710</v>
+        <v>5709</v>
       </c>
     </row>
     <row r="1552" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -45652,7 +45652,7 @@
         <v>3631</v>
       </c>
       <c r="E1552" t="s">
-        <v>5711</v>
+        <v>5710</v>
       </c>
     </row>
     <row r="1553" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -45669,7 +45669,7 @@
         <v>3632</v>
       </c>
       <c r="E1553" t="s">
-        <v>5712</v>
+        <v>5711</v>
       </c>
     </row>
     <row r="1554" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -45686,7 +45686,7 @@
         <v>3633</v>
       </c>
       <c r="E1554" t="s">
-        <v>5713</v>
+        <v>5712</v>
       </c>
     </row>
     <row r="1555" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -45694,7 +45694,7 @@
         <v>61262</v>
       </c>
       <c r="B1555" s="5" t="s">
-        <v>6256</v>
+        <v>6255</v>
       </c>
       <c r="C1555" s="3">
         <v>8960</v>
@@ -45703,7 +45703,7 @@
         <v>3634</v>
       </c>
       <c r="E1555" t="s">
-        <v>5714</v>
+        <v>5713</v>
       </c>
     </row>
     <row r="1556" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -45720,7 +45720,7 @@
         <v>3635</v>
       </c>
       <c r="E1556" t="s">
-        <v>5715</v>
+        <v>5714</v>
       </c>
     </row>
     <row r="1557" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -45737,7 +45737,7 @@
         <v>3636</v>
       </c>
       <c r="E1557" t="s">
-        <v>5716</v>
+        <v>5715</v>
       </c>
     </row>
     <row r="1558" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -45754,7 +45754,7 @@
         <v>3637</v>
       </c>
       <c r="E1558" t="s">
-        <v>5717</v>
+        <v>5716</v>
       </c>
     </row>
     <row r="1559" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -45771,7 +45771,7 @@
         <v>3638</v>
       </c>
       <c r="E1559" t="s">
-        <v>5718</v>
+        <v>5717</v>
       </c>
     </row>
     <row r="1560" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -45788,7 +45788,7 @@
         <v>3639</v>
       </c>
       <c r="E1560" t="s">
-        <v>5719</v>
+        <v>5718</v>
       </c>
     </row>
     <row r="1561" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -45805,7 +45805,7 @@
         <v>3640</v>
       </c>
       <c r="E1561" t="s">
-        <v>5720</v>
+        <v>5719</v>
       </c>
     </row>
     <row r="1562" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -45822,7 +45822,7 @@
         <v>3641</v>
       </c>
       <c r="E1562" t="s">
-        <v>5721</v>
+        <v>5720</v>
       </c>
     </row>
     <row r="1563" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -45839,7 +45839,7 @@
         <v>3642</v>
       </c>
       <c r="E1563" t="s">
-        <v>5722</v>
+        <v>5721</v>
       </c>
     </row>
     <row r="1564" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -45856,7 +45856,7 @@
         <v>3643</v>
       </c>
       <c r="E1564" t="s">
-        <v>5723</v>
+        <v>5722</v>
       </c>
     </row>
     <row r="1565" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -45873,7 +45873,7 @@
         <v>3644</v>
       </c>
       <c r="E1565" t="s">
-        <v>5724</v>
+        <v>5723</v>
       </c>
     </row>
     <row r="1566" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -45890,7 +45890,7 @@
         <v>3645</v>
       </c>
       <c r="E1566" t="s">
-        <v>5725</v>
+        <v>5724</v>
       </c>
     </row>
     <row r="1567" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -45907,7 +45907,7 @@
         <v>3646</v>
       </c>
       <c r="E1567" t="s">
-        <v>5726</v>
+        <v>5725</v>
       </c>
     </row>
     <row r="1568" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -45924,7 +45924,7 @@
         <v>3647</v>
       </c>
       <c r="E1568" t="s">
-        <v>5727</v>
+        <v>5726</v>
       </c>
     </row>
     <row r="1569" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -45941,7 +45941,7 @@
         <v>3648</v>
       </c>
       <c r="E1569" t="s">
-        <v>5728</v>
+        <v>5727</v>
       </c>
     </row>
     <row r="1570" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -45958,7 +45958,7 @@
         <v>3649</v>
       </c>
       <c r="E1570" t="s">
-        <v>5729</v>
+        <v>5728</v>
       </c>
     </row>
     <row r="1571" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -45975,7 +45975,7 @@
         <v>3650</v>
       </c>
       <c r="E1571" t="s">
-        <v>5730</v>
+        <v>5729</v>
       </c>
     </row>
     <row r="1572" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -45992,7 +45992,7 @@
         <v>3651</v>
       </c>
       <c r="E1572" t="s">
-        <v>5731</v>
+        <v>5730</v>
       </c>
     </row>
     <row r="1573" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -46009,7 +46009,7 @@
         <v>3652</v>
       </c>
       <c r="E1573" t="s">
-        <v>5732</v>
+        <v>5731</v>
       </c>
     </row>
     <row r="1574" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -46026,7 +46026,7 @@
         <v>3653</v>
       </c>
       <c r="E1574" t="s">
-        <v>5733</v>
+        <v>5732</v>
       </c>
     </row>
     <row r="1575" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -46043,7 +46043,7 @@
         <v>3654</v>
       </c>
       <c r="E1575" t="s">
-        <v>5734</v>
+        <v>5733</v>
       </c>
     </row>
     <row r="1576" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -46060,7 +46060,7 @@
         <v>3655</v>
       </c>
       <c r="E1576" t="s">
-        <v>5735</v>
+        <v>5734</v>
       </c>
     </row>
     <row r="1577" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -46077,7 +46077,7 @@
         <v>3656</v>
       </c>
       <c r="E1577" t="s">
-        <v>5736</v>
+        <v>5735</v>
       </c>
     </row>
     <row r="1578" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -46094,7 +46094,7 @@
         <v>3657</v>
       </c>
       <c r="E1578" t="s">
-        <v>5737</v>
+        <v>5736</v>
       </c>
     </row>
     <row r="1579" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -46111,7 +46111,7 @@
         <v>3658</v>
       </c>
       <c r="E1579" t="s">
-        <v>5738</v>
+        <v>5737</v>
       </c>
     </row>
     <row r="1580" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -46128,7 +46128,7 @@
         <v>3659</v>
       </c>
       <c r="E1580" t="s">
-        <v>5739</v>
+        <v>5738</v>
       </c>
     </row>
     <row r="1581" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -46145,7 +46145,7 @@
         <v>3660</v>
       </c>
       <c r="E1581" t="s">
-        <v>5740</v>
+        <v>5739</v>
       </c>
     </row>
     <row r="1582" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -46162,7 +46162,7 @@
         <v>3661</v>
       </c>
       <c r="E1582" t="s">
-        <v>5741</v>
+        <v>5740</v>
       </c>
     </row>
     <row r="1583" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -46179,7 +46179,7 @@
         <v>3662</v>
       </c>
       <c r="E1583" t="s">
-        <v>5742</v>
+        <v>5741</v>
       </c>
     </row>
     <row r="1584" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -46196,7 +46196,7 @@
         <v>3663</v>
       </c>
       <c r="E1584" t="s">
-        <v>5743</v>
+        <v>5742</v>
       </c>
     </row>
     <row r="1585" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -46213,7 +46213,7 @@
         <v>3664</v>
       </c>
       <c r="E1585" t="s">
-        <v>5744</v>
+        <v>5743</v>
       </c>
     </row>
     <row r="1586" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -46230,7 +46230,7 @@
         <v>3665</v>
       </c>
       <c r="E1586" t="s">
-        <v>5745</v>
+        <v>5744</v>
       </c>
     </row>
     <row r="1587" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -46247,7 +46247,7 @@
         <v>3666</v>
       </c>
       <c r="E1587" t="s">
-        <v>5746</v>
+        <v>5745</v>
       </c>
     </row>
     <row r="1588" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -46264,7 +46264,7 @@
         <v>3667</v>
       </c>
       <c r="E1588" t="s">
-        <v>5747</v>
+        <v>5746</v>
       </c>
     </row>
     <row r="1589" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -46281,7 +46281,7 @@
         <v>3668</v>
       </c>
       <c r="E1589" t="s">
-        <v>5748</v>
+        <v>5747</v>
       </c>
     </row>
     <row r="1590" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -46298,7 +46298,7 @@
         <v>3669</v>
       </c>
       <c r="E1590" t="s">
-        <v>5749</v>
+        <v>5748</v>
       </c>
     </row>
     <row r="1591" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -46315,7 +46315,7 @@
         <v>3670</v>
       </c>
       <c r="E1591" t="s">
-        <v>5750</v>
+        <v>5749</v>
       </c>
     </row>
     <row r="1592" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -46332,7 +46332,7 @@
         <v>3671</v>
       </c>
       <c r="E1592" t="s">
-        <v>5751</v>
+        <v>5750</v>
       </c>
     </row>
     <row r="1593" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -46349,7 +46349,7 @@
         <v>3672</v>
       </c>
       <c r="E1593" t="s">
-        <v>5752</v>
+        <v>5751</v>
       </c>
     </row>
     <row r="1594" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -46366,7 +46366,7 @@
         <v>3673</v>
       </c>
       <c r="E1594" t="s">
-        <v>5753</v>
+        <v>5752</v>
       </c>
     </row>
     <row r="1595" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -46383,7 +46383,7 @@
         <v>3674</v>
       </c>
       <c r="E1595" t="s">
-        <v>5754</v>
+        <v>5753</v>
       </c>
     </row>
     <row r="1596" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -46400,7 +46400,7 @@
         <v>3675</v>
       </c>
       <c r="E1596" t="s">
-        <v>5755</v>
+        <v>5754</v>
       </c>
     </row>
     <row r="1597" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -46417,7 +46417,7 @@
         <v>3676</v>
       </c>
       <c r="E1597" t="s">
-        <v>5756</v>
+        <v>5755</v>
       </c>
     </row>
     <row r="1598" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -46434,7 +46434,7 @@
         <v>3677</v>
       </c>
       <c r="E1598" t="s">
-        <v>5757</v>
+        <v>5756</v>
       </c>
     </row>
     <row r="1599" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -46451,7 +46451,7 @@
         <v>3678</v>
       </c>
       <c r="E1599" t="s">
-        <v>5758</v>
+        <v>5757</v>
       </c>
     </row>
     <row r="1600" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -46468,7 +46468,7 @@
         <v>3679</v>
       </c>
       <c r="E1600" t="s">
-        <v>5759</v>
+        <v>5758</v>
       </c>
     </row>
     <row r="1601" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -46485,7 +46485,7 @@
         <v>3680</v>
       </c>
       <c r="E1601" t="s">
-        <v>5760</v>
+        <v>5759</v>
       </c>
     </row>
     <row r="1602" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -46502,7 +46502,7 @@
         <v>3681</v>
       </c>
       <c r="E1602" t="s">
-        <v>5761</v>
+        <v>5760</v>
       </c>
     </row>
     <row r="1603" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -46519,7 +46519,7 @@
         <v>3682</v>
       </c>
       <c r="E1603" t="s">
-        <v>5762</v>
+        <v>5761</v>
       </c>
     </row>
     <row r="1604" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -46536,7 +46536,7 @@
         <v>3683</v>
       </c>
       <c r="E1604" t="s">
-        <v>5763</v>
+        <v>5762</v>
       </c>
     </row>
     <row r="1605" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -46553,7 +46553,7 @@
         <v>3684</v>
       </c>
       <c r="E1605" t="s">
-        <v>5764</v>
+        <v>5763</v>
       </c>
     </row>
     <row r="1606" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -46570,7 +46570,7 @@
         <v>3685</v>
       </c>
       <c r="E1606" t="s">
-        <v>5765</v>
+        <v>5764</v>
       </c>
     </row>
     <row r="1607" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -46587,7 +46587,7 @@
         <v>3686</v>
       </c>
       <c r="E1607" t="s">
-        <v>5766</v>
+        <v>5765</v>
       </c>
     </row>
     <row r="1608" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -46604,7 +46604,7 @@
         <v>3687</v>
       </c>
       <c r="E1608" t="s">
-        <v>5767</v>
+        <v>5766</v>
       </c>
     </row>
     <row r="1609" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -46621,7 +46621,7 @@
         <v>3688</v>
       </c>
       <c r="E1609" t="s">
-        <v>5768</v>
+        <v>5767</v>
       </c>
     </row>
     <row r="1610" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -46638,7 +46638,7 @@
         <v>3689</v>
       </c>
       <c r="E1610" t="s">
-        <v>5769</v>
+        <v>5768</v>
       </c>
     </row>
     <row r="1611" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -46655,7 +46655,7 @@
         <v>3690</v>
       </c>
       <c r="E1611" t="s">
-        <v>5770</v>
+        <v>5769</v>
       </c>
     </row>
     <row r="1612" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -46672,7 +46672,7 @@
         <v>3691</v>
       </c>
       <c r="E1612" t="s">
-        <v>5771</v>
+        <v>5770</v>
       </c>
     </row>
     <row r="1613" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -46689,7 +46689,7 @@
         <v>3692</v>
       </c>
       <c r="E1613" t="s">
-        <v>5772</v>
+        <v>5771</v>
       </c>
     </row>
     <row r="1614" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -46706,7 +46706,7 @@
         <v>3693</v>
       </c>
       <c r="E1614" t="s">
-        <v>5773</v>
+        <v>5772</v>
       </c>
     </row>
     <row r="1615" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -46723,7 +46723,7 @@
         <v>3694</v>
       </c>
       <c r="E1615" t="s">
-        <v>5774</v>
+        <v>5773</v>
       </c>
     </row>
     <row r="1616" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -46740,7 +46740,7 @@
         <v>3695</v>
       </c>
       <c r="E1616" t="s">
-        <v>5775</v>
+        <v>5774</v>
       </c>
     </row>
     <row r="1617" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -46757,7 +46757,7 @@
         <v>3696</v>
       </c>
       <c r="E1617" t="s">
-        <v>5776</v>
+        <v>5775</v>
       </c>
     </row>
     <row r="1618" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -46774,7 +46774,7 @@
         <v>3697</v>
       </c>
       <c r="E1618" t="s">
-        <v>5777</v>
+        <v>5776</v>
       </c>
     </row>
     <row r="1619" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -46791,7 +46791,7 @@
         <v>3698</v>
       </c>
       <c r="E1619" t="s">
-        <v>5778</v>
+        <v>5777</v>
       </c>
     </row>
     <row r="1620" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -46808,7 +46808,7 @@
         <v>3699</v>
       </c>
       <c r="E1620" t="s">
-        <v>5779</v>
+        <v>5778</v>
       </c>
     </row>
     <row r="1621" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -46825,7 +46825,7 @@
         <v>3700</v>
       </c>
       <c r="E1621" t="s">
-        <v>5780</v>
+        <v>5779</v>
       </c>
     </row>
     <row r="1622" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -46842,7 +46842,7 @@
         <v>3701</v>
       </c>
       <c r="E1622" t="s">
-        <v>5781</v>
+        <v>5780</v>
       </c>
     </row>
     <row r="1623" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -46859,7 +46859,7 @@
         <v>3702</v>
       </c>
       <c r="E1623" t="s">
-        <v>5782</v>
+        <v>5781</v>
       </c>
     </row>
     <row r="1624" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -46876,7 +46876,7 @@
         <v>3703</v>
       </c>
       <c r="E1624" t="s">
-        <v>5783</v>
+        <v>5782</v>
       </c>
     </row>
     <row r="1625" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -46893,7 +46893,7 @@
         <v>3704</v>
       </c>
       <c r="E1625" t="s">
-        <v>5784</v>
+        <v>5783</v>
       </c>
     </row>
     <row r="1626" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -46910,7 +46910,7 @@
         <v>3705</v>
       </c>
       <c r="E1626" t="s">
-        <v>5785</v>
+        <v>5784</v>
       </c>
     </row>
     <row r="1627" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -46927,7 +46927,7 @@
         <v>3706</v>
       </c>
       <c r="E1627" t="s">
-        <v>5786</v>
+        <v>5785</v>
       </c>
     </row>
     <row r="1628" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -46944,7 +46944,7 @@
         <v>3707</v>
       </c>
       <c r="E1628" t="s">
-        <v>5787</v>
+        <v>5786</v>
       </c>
     </row>
     <row r="1629" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -46961,7 +46961,7 @@
         <v>3708</v>
       </c>
       <c r="E1629" t="s">
-        <v>5788</v>
+        <v>5787</v>
       </c>
     </row>
     <row r="1630" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -46978,7 +46978,7 @@
         <v>3709</v>
       </c>
       <c r="E1630" t="s">
-        <v>5789</v>
+        <v>5788</v>
       </c>
     </row>
     <row r="1631" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -46995,7 +46995,7 @@
         <v>3710</v>
       </c>
       <c r="E1631" t="s">
-        <v>5790</v>
+        <v>5789</v>
       </c>
     </row>
     <row r="1632" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -47012,7 +47012,7 @@
         <v>3711</v>
       </c>
       <c r="E1632" t="s">
-        <v>5791</v>
+        <v>5790</v>
       </c>
     </row>
     <row r="1633" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -47029,7 +47029,7 @@
         <v>3712</v>
       </c>
       <c r="E1633" t="s">
-        <v>5792</v>
+        <v>5791</v>
       </c>
     </row>
     <row r="1634" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -47046,7 +47046,7 @@
         <v>3713</v>
       </c>
       <c r="E1634" t="s">
-        <v>5793</v>
+        <v>5792</v>
       </c>
     </row>
     <row r="1635" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -47063,7 +47063,7 @@
         <v>3714</v>
       </c>
       <c r="E1635" t="s">
-        <v>5794</v>
+        <v>5793</v>
       </c>
     </row>
     <row r="1636" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -47080,7 +47080,7 @@
         <v>3715</v>
       </c>
       <c r="E1636" t="s">
-        <v>5795</v>
+        <v>5794</v>
       </c>
     </row>
     <row r="1637" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -47097,7 +47097,7 @@
         <v>3716</v>
       </c>
       <c r="E1637" t="s">
-        <v>5796</v>
+        <v>5795</v>
       </c>
     </row>
     <row r="1638" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -47114,7 +47114,7 @@
         <v>3717</v>
       </c>
       <c r="E1638" t="s">
-        <v>5797</v>
+        <v>5796</v>
       </c>
     </row>
     <row r="1639" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -47131,7 +47131,7 @@
         <v>3718</v>
       </c>
       <c r="E1639" t="s">
-        <v>5798</v>
+        <v>5797</v>
       </c>
     </row>
     <row r="1640" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -47148,7 +47148,7 @@
         <v>3719</v>
       </c>
       <c r="E1640" t="s">
-        <v>5799</v>
+        <v>5798</v>
       </c>
     </row>
     <row r="1641" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -47165,7 +47165,7 @@
         <v>3720</v>
       </c>
       <c r="E1641" t="s">
-        <v>5800</v>
+        <v>5799</v>
       </c>
     </row>
     <row r="1642" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -47182,7 +47182,7 @@
         <v>3721</v>
       </c>
       <c r="E1642" t="s">
-        <v>5801</v>
+        <v>5800</v>
       </c>
     </row>
     <row r="1643" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -47199,7 +47199,7 @@
         <v>3722</v>
       </c>
       <c r="E1643" t="s">
-        <v>5802</v>
+        <v>5801</v>
       </c>
     </row>
     <row r="1644" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -47216,7 +47216,7 @@
         <v>3723</v>
       </c>
       <c r="E1644" t="s">
-        <v>5803</v>
+        <v>5802</v>
       </c>
     </row>
     <row r="1645" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -47233,7 +47233,7 @@
         <v>3724</v>
       </c>
       <c r="E1645" t="s">
-        <v>5804</v>
+        <v>5803</v>
       </c>
     </row>
     <row r="1646" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -47250,7 +47250,7 @@
         <v>3725</v>
       </c>
       <c r="E1646" t="s">
-        <v>5805</v>
+        <v>5804</v>
       </c>
     </row>
     <row r="1647" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -47267,7 +47267,7 @@
         <v>3726</v>
       </c>
       <c r="E1647" t="s">
-        <v>5806</v>
+        <v>5805</v>
       </c>
     </row>
     <row r="1648" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -47284,7 +47284,7 @@
         <v>3727</v>
       </c>
       <c r="E1648" t="s">
-        <v>5807</v>
+        <v>5806</v>
       </c>
     </row>
     <row r="1649" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -47301,7 +47301,7 @@
         <v>3728</v>
       </c>
       <c r="E1649" t="s">
-        <v>5808</v>
+        <v>5807</v>
       </c>
     </row>
     <row r="1650" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -47318,7 +47318,7 @@
         <v>3729</v>
       </c>
       <c r="E1650" t="s">
-        <v>5809</v>
+        <v>5808</v>
       </c>
     </row>
     <row r="1651" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -47335,7 +47335,7 @@
         <v>3730</v>
       </c>
       <c r="E1651" t="s">
-        <v>5810</v>
+        <v>5809</v>
       </c>
     </row>
     <row r="1652" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -47352,7 +47352,7 @@
         <v>3731</v>
       </c>
       <c r="E1652" t="s">
-        <v>5811</v>
+        <v>5810</v>
       </c>
     </row>
     <row r="1653" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -47369,7 +47369,7 @@
         <v>3732</v>
       </c>
       <c r="E1653" t="s">
-        <v>5812</v>
+        <v>5811</v>
       </c>
     </row>
     <row r="1654" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -47386,7 +47386,7 @@
         <v>3733</v>
       </c>
       <c r="E1654" t="s">
-        <v>5813</v>
+        <v>5812</v>
       </c>
     </row>
     <row r="1655" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -47403,7 +47403,7 @@
         <v>3734</v>
       </c>
       <c r="E1655" t="s">
-        <v>5814</v>
+        <v>5813</v>
       </c>
     </row>
     <row r="1656" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -47420,7 +47420,7 @@
         <v>3735</v>
       </c>
       <c r="E1656" t="s">
-        <v>5815</v>
+        <v>5814</v>
       </c>
     </row>
     <row r="1657" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -47437,7 +47437,7 @@
         <v>3736</v>
       </c>
       <c r="E1657" t="s">
-        <v>5816</v>
+        <v>5815</v>
       </c>
     </row>
     <row r="1658" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -47454,7 +47454,7 @@
         <v>3737</v>
       </c>
       <c r="E1658" t="s">
-        <v>5817</v>
+        <v>5816</v>
       </c>
     </row>
     <row r="1659" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -47471,7 +47471,7 @@
         <v>3738</v>
       </c>
       <c r="E1659" t="s">
-        <v>5818</v>
+        <v>5817</v>
       </c>
     </row>
     <row r="1660" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -47488,7 +47488,7 @@
         <v>3739</v>
       </c>
       <c r="E1660" t="s">
-        <v>5819</v>
+        <v>5818</v>
       </c>
     </row>
     <row r="1661" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -47505,7 +47505,7 @@
         <v>3740</v>
       </c>
       <c r="E1661" t="s">
-        <v>5820</v>
+        <v>5819</v>
       </c>
     </row>
     <row r="1662" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -47522,7 +47522,7 @@
         <v>3741</v>
       </c>
       <c r="E1662" t="s">
-        <v>5821</v>
+        <v>5820</v>
       </c>
     </row>
     <row r="1663" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -47539,7 +47539,7 @@
         <v>3742</v>
       </c>
       <c r="E1663" t="s">
-        <v>5822</v>
+        <v>5821</v>
       </c>
     </row>
     <row r="1664" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -47556,7 +47556,7 @@
         <v>3743</v>
       </c>
       <c r="E1664" t="s">
-        <v>5823</v>
+        <v>5822</v>
       </c>
     </row>
     <row r="1665" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -47573,7 +47573,7 @@
         <v>3744</v>
       </c>
       <c r="E1665" t="s">
-        <v>5824</v>
+        <v>5823</v>
       </c>
     </row>
     <row r="1666" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -47590,7 +47590,7 @@
         <v>3745</v>
       </c>
       <c r="E1666" t="s">
-        <v>5825</v>
+        <v>5824</v>
       </c>
     </row>
     <row r="1667" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -47607,7 +47607,7 @@
         <v>3746</v>
       </c>
       <c r="E1667" t="s">
-        <v>5826</v>
+        <v>5825</v>
       </c>
     </row>
     <row r="1668" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -47624,7 +47624,7 @@
         <v>3747</v>
       </c>
       <c r="E1668" t="s">
-        <v>5827</v>
+        <v>5826</v>
       </c>
     </row>
     <row r="1669" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -47641,7 +47641,7 @@
         <v>3748</v>
       </c>
       <c r="E1669" t="s">
-        <v>5828</v>
+        <v>5827</v>
       </c>
     </row>
     <row r="1670" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -47658,7 +47658,7 @@
         <v>3749</v>
       </c>
       <c r="E1670" t="s">
-        <v>5829</v>
+        <v>5828</v>
       </c>
     </row>
     <row r="1671" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -47675,7 +47675,7 @@
         <v>3750</v>
       </c>
       <c r="E1671" t="s">
-        <v>5830</v>
+        <v>5829</v>
       </c>
     </row>
     <row r="1672" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -47692,7 +47692,7 @@
         <v>3751</v>
       </c>
       <c r="E1672" t="s">
-        <v>5831</v>
+        <v>5830</v>
       </c>
     </row>
     <row r="1673" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -47709,7 +47709,7 @@
         <v>3752</v>
       </c>
       <c r="E1673" t="s">
-        <v>5832</v>
+        <v>5831</v>
       </c>
     </row>
     <row r="1674" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -47726,7 +47726,7 @@
         <v>3753</v>
       </c>
       <c r="E1674" t="s">
-        <v>5833</v>
+        <v>5832</v>
       </c>
     </row>
     <row r="1675" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -47743,7 +47743,7 @@
         <v>3754</v>
       </c>
       <c r="E1675" t="s">
-        <v>5834</v>
+        <v>5833</v>
       </c>
     </row>
     <row r="1676" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -47760,7 +47760,7 @@
         <v>3755</v>
       </c>
       <c r="E1676" t="s">
-        <v>5835</v>
+        <v>5834</v>
       </c>
     </row>
     <row r="1677" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -47777,7 +47777,7 @@
         <v>3756</v>
       </c>
       <c r="E1677" t="s">
-        <v>5836</v>
+        <v>5835</v>
       </c>
     </row>
     <row r="1678" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -47794,7 +47794,7 @@
         <v>3757</v>
       </c>
       <c r="E1678" t="s">
-        <v>5837</v>
+        <v>5836</v>
       </c>
     </row>
     <row r="1679" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -47811,7 +47811,7 @@
         <v>3758</v>
       </c>
       <c r="E1679" t="s">
-        <v>5838</v>
+        <v>5837</v>
       </c>
     </row>
     <row r="1680" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -47828,7 +47828,7 @@
         <v>3759</v>
       </c>
       <c r="E1680" t="s">
-        <v>5839</v>
+        <v>5838</v>
       </c>
     </row>
     <row r="1681" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -47845,7 +47845,7 @@
         <v>3760</v>
       </c>
       <c r="E1681" t="s">
-        <v>5840</v>
+        <v>5839</v>
       </c>
     </row>
     <row r="1682" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -47862,7 +47862,7 @@
         <v>3761</v>
       </c>
       <c r="E1682" t="s">
-        <v>5841</v>
+        <v>5840</v>
       </c>
     </row>
     <row r="1683" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -47879,7 +47879,7 @@
         <v>3762</v>
       </c>
       <c r="E1683" t="s">
-        <v>5842</v>
+        <v>5841</v>
       </c>
     </row>
     <row r="1684" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -47896,7 +47896,7 @@
         <v>3763</v>
       </c>
       <c r="E1684" t="s">
-        <v>5843</v>
+        <v>5842</v>
       </c>
     </row>
     <row r="1685" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -47913,7 +47913,7 @@
         <v>3764</v>
       </c>
       <c r="E1685" t="s">
-        <v>5844</v>
+        <v>5843</v>
       </c>
     </row>
     <row r="1686" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -47930,7 +47930,7 @@
         <v>3765</v>
       </c>
       <c r="E1686" t="s">
-        <v>5845</v>
+        <v>5844</v>
       </c>
     </row>
     <row r="1687" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -47947,7 +47947,7 @@
         <v>3766</v>
       </c>
       <c r="E1687" t="s">
-        <v>5846</v>
+        <v>5845</v>
       </c>
     </row>
     <row r="1688" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -47964,7 +47964,7 @@
         <v>3767</v>
       </c>
       <c r="E1688" t="s">
-        <v>5847</v>
+        <v>5846</v>
       </c>
     </row>
     <row r="1689" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -47981,7 +47981,7 @@
         <v>3768</v>
       </c>
       <c r="E1689" t="s">
-        <v>5848</v>
+        <v>5847</v>
       </c>
     </row>
     <row r="1690" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -47998,7 +47998,7 @@
         <v>3769</v>
       </c>
       <c r="E1690" t="s">
-        <v>5849</v>
+        <v>5848</v>
       </c>
     </row>
     <row r="1691" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -48015,7 +48015,7 @@
         <v>3770</v>
       </c>
       <c r="E1691" t="s">
-        <v>5850</v>
+        <v>5849</v>
       </c>
     </row>
     <row r="1692" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -48032,7 +48032,7 @@
         <v>3771</v>
       </c>
       <c r="E1692" t="s">
-        <v>5851</v>
+        <v>5850</v>
       </c>
     </row>
     <row r="1693" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -48049,7 +48049,7 @@
         <v>3772</v>
       </c>
       <c r="E1693" t="s">
-        <v>5852</v>
+        <v>5851</v>
       </c>
     </row>
     <row r="1694" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -48066,7 +48066,7 @@
         <v>3773</v>
       </c>
       <c r="E1694" t="s">
-        <v>5853</v>
+        <v>5852</v>
       </c>
     </row>
     <row r="1695" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -48083,7 +48083,7 @@
         <v>3774</v>
       </c>
       <c r="E1695" t="s">
-        <v>5854</v>
+        <v>5853</v>
       </c>
     </row>
     <row r="1696" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -48100,7 +48100,7 @@
         <v>3775</v>
       </c>
       <c r="E1696" t="s">
-        <v>5855</v>
+        <v>5854</v>
       </c>
     </row>
     <row r="1697" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -48117,7 +48117,7 @@
         <v>3776</v>
       </c>
       <c r="E1697" t="s">
-        <v>5856</v>
+        <v>5855</v>
       </c>
     </row>
     <row r="1698" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -48134,7 +48134,7 @@
         <v>3777</v>
       </c>
       <c r="E1698" t="s">
-        <v>5857</v>
+        <v>5856</v>
       </c>
     </row>
     <row r="1699" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -48151,7 +48151,7 @@
         <v>3778</v>
       </c>
       <c r="E1699" t="s">
-        <v>5858</v>
+        <v>5857</v>
       </c>
     </row>
     <row r="1700" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -48168,7 +48168,7 @@
         <v>3779</v>
       </c>
       <c r="E1700" t="s">
-        <v>5859</v>
+        <v>5858</v>
       </c>
     </row>
     <row r="1701" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -48185,7 +48185,7 @@
         <v>3780</v>
       </c>
       <c r="E1701" t="s">
-        <v>5860</v>
+        <v>5859</v>
       </c>
     </row>
     <row r="1702" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -48202,7 +48202,7 @@
         <v>3781</v>
       </c>
       <c r="E1702" t="s">
-        <v>5861</v>
+        <v>5860</v>
       </c>
     </row>
     <row r="1703" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -48219,7 +48219,7 @@
         <v>3782</v>
       </c>
       <c r="E1703" t="s">
-        <v>5862</v>
+        <v>5861</v>
       </c>
     </row>
     <row r="1704" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -48236,7 +48236,7 @@
         <v>3783</v>
       </c>
       <c r="E1704" t="s">
-        <v>5863</v>
+        <v>5862</v>
       </c>
     </row>
     <row r="1705" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -48253,7 +48253,7 @@
         <v>3784</v>
       </c>
       <c r="E1705" t="s">
-        <v>5864</v>
+        <v>5863</v>
       </c>
     </row>
     <row r="1706" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -48270,7 +48270,7 @@
         <v>3785</v>
       </c>
       <c r="E1706" t="s">
-        <v>5865</v>
+        <v>5864</v>
       </c>
     </row>
     <row r="1707" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -48287,7 +48287,7 @@
         <v>3786</v>
       </c>
       <c r="E1707" t="s">
-        <v>5866</v>
+        <v>5865</v>
       </c>
     </row>
     <row r="1708" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -48304,7 +48304,7 @@
         <v>3787</v>
       </c>
       <c r="E1708" t="s">
-        <v>5867</v>
+        <v>5866</v>
       </c>
     </row>
     <row r="1709" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -48321,7 +48321,7 @@
         <v>3788</v>
       </c>
       <c r="E1709" t="s">
-        <v>5868</v>
+        <v>5867</v>
       </c>
     </row>
     <row r="1710" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -48338,7 +48338,7 @@
         <v>3789</v>
       </c>
       <c r="E1710" t="s">
-        <v>5869</v>
+        <v>5868</v>
       </c>
     </row>
     <row r="1711" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -48355,7 +48355,7 @@
         <v>3790</v>
       </c>
       <c r="E1711" t="s">
-        <v>5870</v>
+        <v>5869</v>
       </c>
     </row>
     <row r="1712" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -48372,7 +48372,7 @@
         <v>3791</v>
       </c>
       <c r="E1712" t="s">
-        <v>5871</v>
+        <v>5870</v>
       </c>
     </row>
     <row r="1713" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -48389,7 +48389,7 @@
         <v>3792</v>
       </c>
       <c r="E1713" t="s">
-        <v>5872</v>
+        <v>5871</v>
       </c>
     </row>
     <row r="1714" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -48406,7 +48406,7 @@
         <v>3793</v>
       </c>
       <c r="E1714" t="s">
-        <v>5873</v>
+        <v>5872</v>
       </c>
     </row>
     <row r="1715" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -48423,7 +48423,7 @@
         <v>3794</v>
       </c>
       <c r="E1715" t="s">
-        <v>5874</v>
+        <v>5873</v>
       </c>
     </row>
     <row r="1716" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -48440,7 +48440,7 @@
         <v>3795</v>
       </c>
       <c r="E1716" t="s">
-        <v>5875</v>
+        <v>5874</v>
       </c>
     </row>
     <row r="1717" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -48457,7 +48457,7 @@
         <v>3796</v>
       </c>
       <c r="E1717" t="s">
-        <v>5876</v>
+        <v>5875</v>
       </c>
     </row>
     <row r="1718" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -48474,7 +48474,7 @@
         <v>3797</v>
       </c>
       <c r="E1718" t="s">
-        <v>5877</v>
+        <v>5876</v>
       </c>
     </row>
     <row r="1719" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -48491,7 +48491,7 @@
         <v>3798</v>
       </c>
       <c r="E1719" t="s">
-        <v>5878</v>
+        <v>5877</v>
       </c>
     </row>
     <row r="1720" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -48508,7 +48508,7 @@
         <v>3799</v>
       </c>
       <c r="E1720" t="s">
-        <v>5879</v>
+        <v>5878</v>
       </c>
     </row>
     <row r="1721" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -48525,7 +48525,7 @@
         <v>3800</v>
       </c>
       <c r="E1721" t="s">
-        <v>5880</v>
+        <v>5879</v>
       </c>
     </row>
     <row r="1722" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -48542,7 +48542,7 @@
         <v>3801</v>
       </c>
       <c r="E1722" t="s">
-        <v>5881</v>
+        <v>5880</v>
       </c>
     </row>
     <row r="1723" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -48559,7 +48559,7 @@
         <v>3802</v>
       </c>
       <c r="E1723" t="s">
-        <v>5882</v>
+        <v>5881</v>
       </c>
     </row>
     <row r="1724" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -48576,7 +48576,7 @@
         <v>3803</v>
       </c>
       <c r="E1724" t="s">
-        <v>5883</v>
+        <v>5882</v>
       </c>
     </row>
     <row r="1725" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -48593,7 +48593,7 @@
         <v>3804</v>
       </c>
       <c r="E1725" t="s">
-        <v>5884</v>
+        <v>5883</v>
       </c>
     </row>
     <row r="1726" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -48610,7 +48610,7 @@
         <v>3805</v>
       </c>
       <c r="E1726" t="s">
-        <v>5885</v>
+        <v>5884</v>
       </c>
     </row>
     <row r="1727" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -48627,7 +48627,7 @@
         <v>3806</v>
       </c>
       <c r="E1727" t="s">
-        <v>5886</v>
+        <v>5885</v>
       </c>
     </row>
     <row r="1728" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -48644,7 +48644,7 @@
         <v>3807</v>
       </c>
       <c r="E1728" t="s">
-        <v>5887</v>
+        <v>5886</v>
       </c>
     </row>
     <row r="1729" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -48661,7 +48661,7 @@
         <v>3808</v>
       </c>
       <c r="E1729" t="s">
-        <v>5888</v>
+        <v>5887</v>
       </c>
     </row>
     <row r="1730" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -48678,7 +48678,7 @@
         <v>3809</v>
       </c>
       <c r="E1730" t="s">
-        <v>5889</v>
+        <v>5888</v>
       </c>
     </row>
     <row r="1731" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -48695,7 +48695,7 @@
         <v>3810</v>
       </c>
       <c r="E1731" t="s">
-        <v>5890</v>
+        <v>5889</v>
       </c>
     </row>
     <row r="1732" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -48712,7 +48712,7 @@
         <v>3811</v>
       </c>
       <c r="E1732" t="s">
-        <v>5891</v>
+        <v>5890</v>
       </c>
     </row>
     <row r="1733" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -48729,7 +48729,7 @@
         <v>3812</v>
       </c>
       <c r="E1733" t="s">
-        <v>5892</v>
+        <v>5891</v>
       </c>
     </row>
     <row r="1734" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -48746,7 +48746,7 @@
         <v>3813</v>
       </c>
       <c r="E1734" t="s">
-        <v>5893</v>
+        <v>5892</v>
       </c>
     </row>
     <row r="1735" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -48763,7 +48763,7 @@
         <v>3814</v>
       </c>
       <c r="E1735" t="s">
-        <v>5894</v>
+        <v>5893</v>
       </c>
     </row>
     <row r="1736" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -48780,7 +48780,7 @@
         <v>3815</v>
       </c>
       <c r="E1736" t="s">
-        <v>5895</v>
+        <v>5894</v>
       </c>
     </row>
     <row r="1737" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -48797,7 +48797,7 @@
         <v>3816</v>
       </c>
       <c r="E1737" t="s">
-        <v>5896</v>
+        <v>5895</v>
       </c>
     </row>
     <row r="1738" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -48814,7 +48814,7 @@
         <v>3817</v>
       </c>
       <c r="E1738" t="s">
-        <v>5897</v>
+        <v>5896</v>
       </c>
     </row>
     <row r="1739" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -48831,7 +48831,7 @@
         <v>3818</v>
       </c>
       <c r="E1739" t="s">
-        <v>5898</v>
+        <v>5897</v>
       </c>
     </row>
     <row r="1740" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -48848,7 +48848,7 @@
         <v>3819</v>
       </c>
       <c r="E1740" t="s">
-        <v>5899</v>
+        <v>5898</v>
       </c>
     </row>
     <row r="1741" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -48865,7 +48865,7 @@
         <v>3820</v>
       </c>
       <c r="E1741" t="s">
-        <v>5900</v>
+        <v>5899</v>
       </c>
     </row>
     <row r="1742" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -48882,7 +48882,7 @@
         <v>3821</v>
       </c>
       <c r="E1742" t="s">
-        <v>5901</v>
+        <v>5900</v>
       </c>
     </row>
     <row r="1743" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -48899,7 +48899,7 @@
         <v>3822</v>
       </c>
       <c r="E1743" t="s">
-        <v>5902</v>
+        <v>5901</v>
       </c>
     </row>
     <row r="1744" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -48916,7 +48916,7 @@
         <v>3823</v>
       </c>
       <c r="E1744" t="s">
-        <v>5903</v>
+        <v>5902</v>
       </c>
     </row>
     <row r="1745" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -48933,7 +48933,7 @@
         <v>3824</v>
       </c>
       <c r="E1745" t="s">
-        <v>5904</v>
+        <v>5903</v>
       </c>
     </row>
     <row r="1746" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -48950,7 +48950,7 @@
         <v>3825</v>
       </c>
       <c r="E1746" t="s">
-        <v>5905</v>
+        <v>5904</v>
       </c>
     </row>
     <row r="1747" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -48967,7 +48967,7 @@
         <v>3826</v>
       </c>
       <c r="E1747" t="s">
-        <v>5906</v>
+        <v>5905</v>
       </c>
     </row>
     <row r="1748" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -48984,7 +48984,7 @@
         <v>3827</v>
       </c>
       <c r="E1748" t="s">
-        <v>5907</v>
+        <v>5906</v>
       </c>
     </row>
     <row r="1749" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -49001,7 +49001,7 @@
         <v>3828</v>
       </c>
       <c r="E1749" t="s">
-        <v>5908</v>
+        <v>5907</v>
       </c>
     </row>
     <row r="1750" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -49018,7 +49018,7 @@
         <v>3829</v>
       </c>
       <c r="E1750" t="s">
-        <v>5909</v>
+        <v>5908</v>
       </c>
     </row>
     <row r="1751" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -49035,7 +49035,7 @@
         <v>3830</v>
       </c>
       <c r="E1751" t="s">
-        <v>5910</v>
+        <v>5909</v>
       </c>
     </row>
     <row r="1752" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -49052,7 +49052,7 @@
         <v>3831</v>
       </c>
       <c r="E1752" t="s">
-        <v>5911</v>
+        <v>5910</v>
       </c>
     </row>
     <row r="1753" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -49069,7 +49069,7 @@
         <v>3832</v>
       </c>
       <c r="E1753" t="s">
-        <v>5912</v>
+        <v>5911</v>
       </c>
     </row>
     <row r="1754" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -49086,7 +49086,7 @@
         <v>3833</v>
       </c>
       <c r="E1754" t="s">
-        <v>5913</v>
+        <v>5912</v>
       </c>
     </row>
     <row r="1755" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -49103,7 +49103,7 @@
         <v>3834</v>
       </c>
       <c r="E1755" t="s">
-        <v>5914</v>
+        <v>5913</v>
       </c>
     </row>
     <row r="1756" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -49120,7 +49120,7 @@
         <v>3835</v>
       </c>
       <c r="E1756" t="s">
-        <v>5915</v>
+        <v>5914</v>
       </c>
     </row>
     <row r="1757" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -49137,7 +49137,7 @@
         <v>3836</v>
       </c>
       <c r="E1757" t="s">
-        <v>5916</v>
+        <v>5915</v>
       </c>
     </row>
     <row r="1758" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -49154,7 +49154,7 @@
         <v>3837</v>
       </c>
       <c r="E1758" t="s">
-        <v>5917</v>
+        <v>5916</v>
       </c>
     </row>
     <row r="1759" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -49171,7 +49171,7 @@
         <v>3838</v>
       </c>
       <c r="E1759" t="s">
-        <v>5918</v>
+        <v>5917</v>
       </c>
     </row>
     <row r="1760" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -49188,7 +49188,7 @@
         <v>3839</v>
       </c>
       <c r="E1760" t="s">
-        <v>5919</v>
+        <v>5918</v>
       </c>
     </row>
     <row r="1761" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -49205,7 +49205,7 @@
         <v>3840</v>
       </c>
       <c r="E1761" t="s">
-        <v>5920</v>
+        <v>5919</v>
       </c>
     </row>
     <row r="1762" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -49222,7 +49222,7 @@
         <v>3841</v>
       </c>
       <c r="E1762" t="s">
-        <v>5921</v>
+        <v>5920</v>
       </c>
     </row>
     <row r="1763" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -49239,7 +49239,7 @@
         <v>3842</v>
       </c>
       <c r="E1763" t="s">
-        <v>5922</v>
+        <v>5921</v>
       </c>
     </row>
     <row r="1764" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -49256,7 +49256,7 @@
         <v>3843</v>
       </c>
       <c r="E1764" t="s">
-        <v>5923</v>
+        <v>5922</v>
       </c>
     </row>
     <row r="1765" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -49273,7 +49273,7 @@
         <v>3844</v>
       </c>
       <c r="E1765" t="s">
-        <v>5924</v>
+        <v>5923</v>
       </c>
     </row>
     <row r="1766" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -49290,7 +49290,7 @@
         <v>3845</v>
       </c>
       <c r="E1766" t="s">
-        <v>5925</v>
+        <v>5924</v>
       </c>
     </row>
     <row r="1767" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -49307,7 +49307,7 @@
         <v>3846</v>
       </c>
       <c r="E1767" t="s">
-        <v>5926</v>
+        <v>5925</v>
       </c>
     </row>
     <row r="1768" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -49324,7 +49324,7 @@
         <v>3847</v>
       </c>
       <c r="E1768" t="s">
-        <v>5927</v>
+        <v>5926</v>
       </c>
     </row>
     <row r="1769" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -49341,7 +49341,7 @@
         <v>3848</v>
       </c>
       <c r="E1769" t="s">
-        <v>5928</v>
+        <v>5927</v>
       </c>
     </row>
     <row r="1770" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -49358,7 +49358,7 @@
         <v>3849</v>
       </c>
       <c r="E1770" t="s">
-        <v>5929</v>
+        <v>5928</v>
       </c>
     </row>
     <row r="1771" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -49375,7 +49375,7 @@
         <v>3850</v>
       </c>
       <c r="E1771" t="s">
-        <v>5930</v>
+        <v>5929</v>
       </c>
     </row>
     <row r="1772" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -49392,7 +49392,7 @@
         <v>3851</v>
       </c>
       <c r="E1772" t="s">
-        <v>5931</v>
+        <v>5930</v>
       </c>
     </row>
     <row r="1773" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -49409,7 +49409,7 @@
         <v>3852</v>
       </c>
       <c r="E1773" t="s">
-        <v>5932</v>
+        <v>5931</v>
       </c>
     </row>
     <row r="1774" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -49426,7 +49426,7 @@
         <v>3853</v>
       </c>
       <c r="E1774" t="s">
-        <v>5933</v>
+        <v>5932</v>
       </c>
     </row>
     <row r="1775" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -49443,7 +49443,7 @@
         <v>3854</v>
       </c>
       <c r="E1775" t="s">
-        <v>5934</v>
+        <v>5933</v>
       </c>
     </row>
     <row r="1776" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -49460,7 +49460,7 @@
         <v>3855</v>
       </c>
       <c r="E1776" t="s">
-        <v>5935</v>
+        <v>5934</v>
       </c>
     </row>
     <row r="1777" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -49477,7 +49477,7 @@
         <v>3856</v>
       </c>
       <c r="E1777" t="s">
-        <v>5936</v>
+        <v>5935</v>
       </c>
     </row>
     <row r="1778" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -49494,7 +49494,7 @@
         <v>3857</v>
       </c>
       <c r="E1778" t="s">
-        <v>5937</v>
+        <v>5936</v>
       </c>
     </row>
     <row r="1779" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -49511,7 +49511,7 @@
         <v>3858</v>
       </c>
       <c r="E1779" t="s">
-        <v>5938</v>
+        <v>5937</v>
       </c>
     </row>
     <row r="1780" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -49528,7 +49528,7 @@
         <v>3859</v>
       </c>
       <c r="E1780" t="s">
-        <v>5939</v>
+        <v>5938</v>
       </c>
     </row>
     <row r="1781" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -49545,7 +49545,7 @@
         <v>3860</v>
       </c>
       <c r="E1781" t="s">
-        <v>5940</v>
+        <v>5939</v>
       </c>
     </row>
     <row r="1782" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -49562,7 +49562,7 @@
         <v>3861</v>
       </c>
       <c r="E1782" t="s">
-        <v>5941</v>
+        <v>5940</v>
       </c>
     </row>
     <row r="1783" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -49579,7 +49579,7 @@
         <v>3862</v>
       </c>
       <c r="E1783" t="s">
-        <v>5942</v>
+        <v>5941</v>
       </c>
     </row>
     <row r="1784" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -49596,7 +49596,7 @@
         <v>3863</v>
       </c>
       <c r="E1784" t="s">
-        <v>5943</v>
+        <v>5942</v>
       </c>
     </row>
     <row r="1785" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -49613,7 +49613,7 @@
         <v>3864</v>
       </c>
       <c r="E1785" t="s">
-        <v>5944</v>
+        <v>5943</v>
       </c>
     </row>
     <row r="1786" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -49630,7 +49630,7 @@
         <v>3865</v>
       </c>
       <c r="E1786" t="s">
-        <v>5945</v>
+        <v>5944</v>
       </c>
     </row>
     <row r="1787" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -49647,7 +49647,7 @@
         <v>3866</v>
       </c>
       <c r="E1787" t="s">
-        <v>5946</v>
+        <v>5945</v>
       </c>
     </row>
     <row r="1788" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -49664,7 +49664,7 @@
         <v>3867</v>
       </c>
       <c r="E1788" t="s">
-        <v>5947</v>
+        <v>5946</v>
       </c>
     </row>
     <row r="1789" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -49681,7 +49681,7 @@
         <v>3868</v>
       </c>
       <c r="E1789" t="s">
-        <v>5948</v>
+        <v>5947</v>
       </c>
     </row>
     <row r="1790" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -49698,7 +49698,7 @@
         <v>3869</v>
       </c>
       <c r="E1790" t="s">
-        <v>5949</v>
+        <v>5948</v>
       </c>
     </row>
     <row r="1791" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -49715,7 +49715,7 @@
         <v>3870</v>
       </c>
       <c r="E1791" t="s">
-        <v>5950</v>
+        <v>5949</v>
       </c>
     </row>
     <row r="1792" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -49732,7 +49732,7 @@
         <v>3871</v>
       </c>
       <c r="E1792" t="s">
-        <v>5951</v>
+        <v>5950</v>
       </c>
     </row>
     <row r="1793" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -49749,7 +49749,7 @@
         <v>3872</v>
       </c>
       <c r="E1793" t="s">
-        <v>5952</v>
+        <v>5951</v>
       </c>
     </row>
     <row r="1794" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -49766,7 +49766,7 @@
         <v>3873</v>
       </c>
       <c r="E1794" t="s">
-        <v>5953</v>
+        <v>5952</v>
       </c>
     </row>
     <row r="1795" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -49783,7 +49783,7 @@
         <v>3874</v>
       </c>
       <c r="E1795" t="s">
-        <v>5954</v>
+        <v>5953</v>
       </c>
     </row>
     <row r="1796" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -49800,7 +49800,7 @@
         <v>3875</v>
       </c>
       <c r="E1796" t="s">
-        <v>5955</v>
+        <v>5954</v>
       </c>
     </row>
     <row r="1797" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -49817,7 +49817,7 @@
         <v>3876</v>
       </c>
       <c r="E1797" t="s">
-        <v>5956</v>
+        <v>5955</v>
       </c>
     </row>
     <row r="1798" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -49834,7 +49834,7 @@
         <v>3877</v>
       </c>
       <c r="E1798" t="s">
-        <v>5957</v>
+        <v>5956</v>
       </c>
     </row>
     <row r="1799" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -49851,7 +49851,7 @@
         <v>3878</v>
       </c>
       <c r="E1799" t="s">
-        <v>5958</v>
+        <v>5957</v>
       </c>
     </row>
     <row r="1800" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -49868,7 +49868,7 @@
         <v>3879</v>
       </c>
       <c r="E1800" t="s">
-        <v>5959</v>
+        <v>5958</v>
       </c>
     </row>
     <row r="1801" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -49885,7 +49885,7 @@
         <v>3880</v>
       </c>
       <c r="E1801" t="s">
-        <v>5960</v>
+        <v>5959</v>
       </c>
     </row>
     <row r="1802" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -49902,7 +49902,7 @@
         <v>3881</v>
       </c>
       <c r="E1802" t="s">
-        <v>5961</v>
+        <v>5960</v>
       </c>
     </row>
     <row r="1803" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -49919,7 +49919,7 @@
         <v>3882</v>
       </c>
       <c r="E1803" t="s">
-        <v>5962</v>
+        <v>5961</v>
       </c>
     </row>
     <row r="1804" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -49936,7 +49936,7 @@
         <v>3883</v>
       </c>
       <c r="E1804" t="s">
-        <v>5963</v>
+        <v>5962</v>
       </c>
     </row>
     <row r="1805" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -49953,7 +49953,7 @@
         <v>3884</v>
       </c>
       <c r="E1805" t="s">
-        <v>5964</v>
+        <v>5963</v>
       </c>
     </row>
     <row r="1806" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -49970,7 +49970,7 @@
         <v>3885</v>
       </c>
       <c r="E1806" t="s">
-        <v>5965</v>
+        <v>5964</v>
       </c>
     </row>
     <row r="1807" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -49987,7 +49987,7 @@
         <v>3886</v>
       </c>
       <c r="E1807" t="s">
-        <v>5966</v>
+        <v>5965</v>
       </c>
     </row>
     <row r="1808" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -50004,7 +50004,7 @@
         <v>3887</v>
       </c>
       <c r="E1808" t="s">
-        <v>5967</v>
+        <v>5966</v>
       </c>
     </row>
     <row r="1809" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -50021,7 +50021,7 @@
         <v>3888</v>
       </c>
       <c r="E1809" t="s">
-        <v>5968</v>
+        <v>5967</v>
       </c>
     </row>
     <row r="1810" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -50038,7 +50038,7 @@
         <v>3889</v>
       </c>
       <c r="E1810" t="s">
-        <v>5969</v>
+        <v>5968</v>
       </c>
     </row>
     <row r="1811" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -50055,7 +50055,7 @@
         <v>3890</v>
       </c>
       <c r="E1811" t="s">
-        <v>5970</v>
+        <v>5969</v>
       </c>
     </row>
     <row r="1812" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -50072,7 +50072,7 @@
         <v>3891</v>
       </c>
       <c r="E1812" t="s">
-        <v>5971</v>
+        <v>5970</v>
       </c>
     </row>
     <row r="1813" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -50089,7 +50089,7 @@
         <v>3892</v>
       </c>
       <c r="E1813" t="s">
-        <v>5972</v>
+        <v>5971</v>
       </c>
     </row>
     <row r="1814" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -50106,7 +50106,7 @@
         <v>3893</v>
       </c>
       <c r="E1814" t="s">
-        <v>5973</v>
+        <v>5972</v>
       </c>
     </row>
     <row r="1815" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -50123,7 +50123,7 @@
         <v>3894</v>
       </c>
       <c r="E1815" t="s">
-        <v>5974</v>
+        <v>5973</v>
       </c>
     </row>
     <row r="1816" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -50140,7 +50140,7 @@
         <v>3895</v>
       </c>
       <c r="E1816" t="s">
-        <v>5975</v>
+        <v>5974</v>
       </c>
     </row>
     <row r="1817" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -50157,7 +50157,7 @@
         <v>3896</v>
       </c>
       <c r="E1817" t="s">
-        <v>5976</v>
+        <v>5975</v>
       </c>
     </row>
     <row r="1818" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -50174,7 +50174,7 @@
         <v>3897</v>
       </c>
       <c r="E1818" t="s">
-        <v>5977</v>
+        <v>5976</v>
       </c>
     </row>
     <row r="1819" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -50191,7 +50191,7 @@
         <v>3898</v>
       </c>
       <c r="E1819" t="s">
-        <v>5978</v>
+        <v>5977</v>
       </c>
     </row>
     <row r="1820" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -50208,7 +50208,7 @@
         <v>3899</v>
       </c>
       <c r="E1820" t="s">
-        <v>5979</v>
+        <v>5978</v>
       </c>
     </row>
     <row r="1821" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -50225,7 +50225,7 @@
         <v>3900</v>
       </c>
       <c r="E1821" t="s">
-        <v>5980</v>
+        <v>5979</v>
       </c>
     </row>
     <row r="1822" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -50242,7 +50242,7 @@
         <v>3901</v>
       </c>
       <c r="E1822" t="s">
-        <v>5981</v>
+        <v>5980</v>
       </c>
     </row>
     <row r="1823" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -50259,7 +50259,7 @@
         <v>3902</v>
       </c>
       <c r="E1823" t="s">
-        <v>5982</v>
+        <v>5981</v>
       </c>
     </row>
     <row r="1824" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -50276,7 +50276,7 @@
         <v>3903</v>
       </c>
       <c r="E1824" t="s">
-        <v>5983</v>
+        <v>5982</v>
       </c>
     </row>
     <row r="1825" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -50293,7 +50293,7 @@
         <v>3904</v>
       </c>
       <c r="E1825" t="s">
-        <v>5984</v>
+        <v>5983</v>
       </c>
     </row>
     <row r="1826" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -50310,7 +50310,7 @@
         <v>3905</v>
       </c>
       <c r="E1826" t="s">
-        <v>5985</v>
+        <v>5984</v>
       </c>
     </row>
     <row r="1827" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -50327,7 +50327,7 @@
         <v>3906</v>
       </c>
       <c r="E1827" t="s">
-        <v>5986</v>
+        <v>5985</v>
       </c>
     </row>
     <row r="1828" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -50344,7 +50344,7 @@
         <v>3907</v>
       </c>
       <c r="E1828" t="s">
-        <v>5987</v>
+        <v>5986</v>
       </c>
     </row>
     <row r="1829" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -50361,7 +50361,7 @@
         <v>3908</v>
       </c>
       <c r="E1829" t="s">
-        <v>5988</v>
+        <v>5987</v>
       </c>
     </row>
     <row r="1830" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -50378,7 +50378,7 @@
         <v>3909</v>
       </c>
       <c r="E1830" t="s">
-        <v>5989</v>
+        <v>5988</v>
       </c>
     </row>
     <row r="1831" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -50395,7 +50395,7 @@
         <v>3910</v>
       </c>
       <c r="E1831" t="s">
-        <v>5990</v>
+        <v>5989</v>
       </c>
     </row>
     <row r="1832" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -50412,7 +50412,7 @@
         <v>3911</v>
       </c>
       <c r="E1832" t="s">
-        <v>5991</v>
+        <v>5990</v>
       </c>
     </row>
     <row r="1833" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -50429,7 +50429,7 @@
         <v>3912</v>
       </c>
       <c r="E1833" t="s">
-        <v>5992</v>
+        <v>5991</v>
       </c>
     </row>
     <row r="1834" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -50446,7 +50446,7 @@
         <v>3913</v>
       </c>
       <c r="E1834" t="s">
-        <v>5993</v>
+        <v>5992</v>
       </c>
     </row>
     <row r="1835" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -50463,7 +50463,7 @@
         <v>3914</v>
       </c>
       <c r="E1835" t="s">
-        <v>5994</v>
+        <v>5993</v>
       </c>
     </row>
     <row r="1836" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -50480,7 +50480,7 @@
         <v>3915</v>
       </c>
       <c r="E1836" t="s">
-        <v>5995</v>
+        <v>5994</v>
       </c>
     </row>
     <row r="1837" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -50497,7 +50497,7 @@
         <v>3916</v>
       </c>
       <c r="E1837" t="s">
-        <v>5996</v>
+        <v>5995</v>
       </c>
     </row>
     <row r="1838" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -50514,7 +50514,7 @@
         <v>3917</v>
       </c>
       <c r="E1838" t="s">
-        <v>5997</v>
+        <v>5996</v>
       </c>
     </row>
     <row r="1839" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -50531,7 +50531,7 @@
         <v>3918</v>
       </c>
       <c r="E1839" t="s">
-        <v>5998</v>
+        <v>5997</v>
       </c>
     </row>
     <row r="1840" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -50548,7 +50548,7 @@
         <v>3919</v>
       </c>
       <c r="E1840" t="s">
-        <v>5999</v>
+        <v>5998</v>
       </c>
     </row>
     <row r="1841" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -50565,7 +50565,7 @@
         <v>3920</v>
       </c>
       <c r="E1841" t="s">
-        <v>6000</v>
+        <v>5999</v>
       </c>
     </row>
     <row r="1842" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -50582,7 +50582,7 @@
         <v>3921</v>
       </c>
       <c r="E1842" t="s">
-        <v>6001</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="1843" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -50599,7 +50599,7 @@
         <v>3922</v>
       </c>
       <c r="E1843" t="s">
-        <v>6002</v>
+        <v>6001</v>
       </c>
     </row>
     <row r="1844" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -50616,7 +50616,7 @@
         <v>3923</v>
       </c>
       <c r="E1844" t="s">
-        <v>6003</v>
+        <v>6002</v>
       </c>
     </row>
     <row r="1845" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -50633,7 +50633,7 @@
         <v>3924</v>
       </c>
       <c r="E1845" t="s">
-        <v>6004</v>
+        <v>6003</v>
       </c>
     </row>
     <row r="1846" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -50650,7 +50650,7 @@
         <v>3925</v>
       </c>
       <c r="E1846" t="s">
-        <v>6005</v>
+        <v>6004</v>
       </c>
     </row>
     <row r="1847" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -50667,7 +50667,7 @@
         <v>3926</v>
       </c>
       <c r="E1847" t="s">
-        <v>6006</v>
+        <v>6005</v>
       </c>
     </row>
     <row r="1848" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -50684,7 +50684,7 @@
         <v>3927</v>
       </c>
       <c r="E1848" t="s">
-        <v>6007</v>
+        <v>6006</v>
       </c>
     </row>
     <row r="1849" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -50701,7 +50701,7 @@
         <v>3928</v>
       </c>
       <c r="E1849" t="s">
-        <v>6008</v>
+        <v>6007</v>
       </c>
     </row>
     <row r="1850" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -50718,7 +50718,7 @@
         <v>3929</v>
       </c>
       <c r="E1850" t="s">
-        <v>6009</v>
+        <v>6008</v>
       </c>
     </row>
     <row r="1851" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -50735,7 +50735,7 @@
         <v>3930</v>
       </c>
       <c r="E1851" t="s">
-        <v>6010</v>
+        <v>6009</v>
       </c>
     </row>
     <row r="1852" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -50752,7 +50752,7 @@
         <v>3931</v>
       </c>
       <c r="E1852" t="s">
-        <v>6011</v>
+        <v>6010</v>
       </c>
     </row>
     <row r="1853" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -50769,7 +50769,7 @@
         <v>3932</v>
       </c>
       <c r="E1853" t="s">
-        <v>6012</v>
+        <v>6011</v>
       </c>
     </row>
     <row r="1854" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -50786,7 +50786,7 @@
         <v>3933</v>
       </c>
       <c r="E1854" t="s">
-        <v>6013</v>
+        <v>6012</v>
       </c>
     </row>
     <row r="1855" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -50803,7 +50803,7 @@
         <v>3934</v>
       </c>
       <c r="E1855" t="s">
-        <v>6014</v>
+        <v>6013</v>
       </c>
     </row>
     <row r="1856" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -50820,7 +50820,7 @@
         <v>3935</v>
       </c>
       <c r="E1856" t="s">
-        <v>6015</v>
+        <v>6014</v>
       </c>
     </row>
     <row r="1857" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -50837,7 +50837,7 @@
         <v>3936</v>
       </c>
       <c r="E1857" t="s">
-        <v>6016</v>
+        <v>6015</v>
       </c>
     </row>
     <row r="1858" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -50854,7 +50854,7 @@
         <v>3937</v>
       </c>
       <c r="E1858" t="s">
-        <v>6017</v>
+        <v>6016</v>
       </c>
     </row>
     <row r="1859" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -50871,7 +50871,7 @@
         <v>3938</v>
       </c>
       <c r="E1859" t="s">
-        <v>6018</v>
+        <v>6017</v>
       </c>
     </row>
     <row r="1860" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -50888,7 +50888,7 @@
         <v>3939</v>
       </c>
       <c r="E1860" t="s">
-        <v>6019</v>
+        <v>6018</v>
       </c>
     </row>
     <row r="1861" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -50905,7 +50905,7 @@
         <v>3940</v>
       </c>
       <c r="E1861" t="s">
-        <v>6020</v>
+        <v>6019</v>
       </c>
     </row>
     <row r="1862" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -50919,10 +50919,10 @@
         <v>6528</v>
       </c>
       <c r="D1862" s="2" t="s">
+        <v>6262</v>
+      </c>
+      <c r="E1862" t="s">
         <v>6263</v>
-      </c>
-      <c r="E1862" t="s">
-        <v>6264</v>
       </c>
     </row>
     <row r="1863" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -50939,7 +50939,7 @@
         <v>3941</v>
       </c>
       <c r="E1863" t="s">
-        <v>6021</v>
+        <v>6020</v>
       </c>
     </row>
     <row r="1864" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -50956,7 +50956,7 @@
         <v>3942</v>
       </c>
       <c r="E1864" t="s">
-        <v>6022</v>
+        <v>6021</v>
       </c>
     </row>
     <row r="1865" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -50973,7 +50973,7 @@
         <v>3943</v>
       </c>
       <c r="E1865" t="s">
-        <v>6023</v>
+        <v>6022</v>
       </c>
     </row>
     <row r="1866" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -50990,7 +50990,7 @@
         <v>3944</v>
       </c>
       <c r="E1866" t="s">
-        <v>6024</v>
+        <v>6023</v>
       </c>
     </row>
     <row r="1867" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -51007,7 +51007,7 @@
         <v>3945</v>
       </c>
       <c r="E1867" t="s">
-        <v>6025</v>
+        <v>6024</v>
       </c>
     </row>
     <row r="1868" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -51024,7 +51024,7 @@
         <v>3946</v>
       </c>
       <c r="E1868" t="s">
-        <v>6026</v>
+        <v>6025</v>
       </c>
     </row>
     <row r="1869" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -51041,7 +51041,7 @@
         <v>3947</v>
       </c>
       <c r="E1869" t="s">
-        <v>6027</v>
+        <v>6026</v>
       </c>
     </row>
     <row r="1870" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -51058,7 +51058,7 @@
         <v>3948</v>
       </c>
       <c r="E1870" t="s">
-        <v>6028</v>
+        <v>6027</v>
       </c>
     </row>
     <row r="1871" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -51075,7 +51075,7 @@
         <v>3949</v>
       </c>
       <c r="E1871" t="s">
-        <v>6029</v>
+        <v>6028</v>
       </c>
     </row>
     <row r="1872" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -51092,7 +51092,7 @@
         <v>3950</v>
       </c>
       <c r="E1872" t="s">
-        <v>6030</v>
+        <v>6029</v>
       </c>
     </row>
     <row r="1873" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -51109,7 +51109,7 @@
         <v>3951</v>
       </c>
       <c r="E1873" t="s">
-        <v>6031</v>
+        <v>6030</v>
       </c>
     </row>
     <row r="1874" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -51126,7 +51126,7 @@
         <v>3952</v>
       </c>
       <c r="E1874" t="s">
-        <v>6032</v>
+        <v>6031</v>
       </c>
     </row>
     <row r="1875" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -51143,7 +51143,7 @@
         <v>3953</v>
       </c>
       <c r="E1875" t="s">
-        <v>6033</v>
+        <v>6032</v>
       </c>
     </row>
     <row r="1876" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -51160,7 +51160,7 @@
         <v>3954</v>
       </c>
       <c r="E1876" t="s">
-        <v>6034</v>
+        <v>6033</v>
       </c>
     </row>
     <row r="1877" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -51177,7 +51177,7 @@
         <v>3955</v>
       </c>
       <c r="E1877" t="s">
-        <v>6035</v>
+        <v>6034</v>
       </c>
     </row>
     <row r="1878" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -51194,7 +51194,7 @@
         <v>3956</v>
       </c>
       <c r="E1878" t="s">
-        <v>6036</v>
+        <v>6035</v>
       </c>
     </row>
     <row r="1879" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -51211,7 +51211,7 @@
         <v>3957</v>
       </c>
       <c r="E1879" t="s">
-        <v>6037</v>
+        <v>6036</v>
       </c>
     </row>
     <row r="1880" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -51228,7 +51228,7 @@
         <v>3958</v>
       </c>
       <c r="E1880" t="s">
-        <v>6038</v>
+        <v>6037</v>
       </c>
     </row>
     <row r="1881" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -51245,7 +51245,7 @@
         <v>3959</v>
       </c>
       <c r="E1881" t="s">
-        <v>6039</v>
+        <v>6038</v>
       </c>
     </row>
     <row r="1882" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -51262,7 +51262,7 @@
         <v>3960</v>
       </c>
       <c r="E1882" t="s">
-        <v>6040</v>
+        <v>6039</v>
       </c>
     </row>
     <row r="1883" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -51279,7 +51279,7 @@
         <v>3961</v>
       </c>
       <c r="E1883" t="s">
-        <v>6041</v>
+        <v>6040</v>
       </c>
     </row>
     <row r="1884" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -51296,7 +51296,7 @@
         <v>3962</v>
       </c>
       <c r="E1884" t="s">
-        <v>6042</v>
+        <v>6041</v>
       </c>
     </row>
     <row r="1885" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -51313,7 +51313,7 @@
         <v>3963</v>
       </c>
       <c r="E1885" t="s">
-        <v>6043</v>
+        <v>6042</v>
       </c>
     </row>
     <row r="1886" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -51330,7 +51330,7 @@
         <v>3964</v>
       </c>
       <c r="E1886" t="s">
-        <v>6044</v>
+        <v>6043</v>
       </c>
     </row>
     <row r="1887" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -51347,7 +51347,7 @@
         <v>3965</v>
       </c>
       <c r="E1887" t="s">
-        <v>6045</v>
+        <v>6044</v>
       </c>
     </row>
     <row r="1888" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -51364,7 +51364,7 @@
         <v>3966</v>
       </c>
       <c r="E1888" t="s">
-        <v>6046</v>
+        <v>6045</v>
       </c>
     </row>
     <row r="1889" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -51381,7 +51381,7 @@
         <v>3967</v>
       </c>
       <c r="E1889" t="s">
-        <v>6047</v>
+        <v>6046</v>
       </c>
     </row>
     <row r="1890" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -51398,7 +51398,7 @@
         <v>3968</v>
       </c>
       <c r="E1890" t="s">
-        <v>6048</v>
+        <v>6047</v>
       </c>
     </row>
     <row r="1891" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -51415,7 +51415,7 @@
         <v>3969</v>
       </c>
       <c r="E1891" t="s">
-        <v>6049</v>
+        <v>6048</v>
       </c>
     </row>
     <row r="1892" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -51432,7 +51432,7 @@
         <v>3970</v>
       </c>
       <c r="E1892" t="s">
-        <v>6050</v>
+        <v>6049</v>
       </c>
     </row>
     <row r="1893" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -51449,7 +51449,7 @@
         <v>3971</v>
       </c>
       <c r="E1893" t="s">
-        <v>6051</v>
+        <v>6050</v>
       </c>
     </row>
     <row r="1894" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -51466,7 +51466,7 @@
         <v>3972</v>
       </c>
       <c r="E1894" t="s">
-        <v>6052</v>
+        <v>6051</v>
       </c>
     </row>
     <row r="1895" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -51483,7 +51483,7 @@
         <v>3973</v>
       </c>
       <c r="E1895" t="s">
-        <v>6053</v>
+        <v>6052</v>
       </c>
     </row>
     <row r="1896" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -51500,7 +51500,7 @@
         <v>3974</v>
       </c>
       <c r="E1896" t="s">
-        <v>6054</v>
+        <v>6053</v>
       </c>
     </row>
     <row r="1897" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -51517,7 +51517,7 @@
         <v>3975</v>
       </c>
       <c r="E1897" t="s">
-        <v>6055</v>
+        <v>6054</v>
       </c>
     </row>
     <row r="1898" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -51534,7 +51534,7 @@
         <v>3976</v>
       </c>
       <c r="E1898" t="s">
-        <v>6056</v>
+        <v>6055</v>
       </c>
     </row>
     <row r="1899" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -51551,7 +51551,7 @@
         <v>3977</v>
       </c>
       <c r="E1899" t="s">
-        <v>6057</v>
+        <v>6056</v>
       </c>
     </row>
     <row r="1900" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -51568,7 +51568,7 @@
         <v>3978</v>
       </c>
       <c r="E1900" t="s">
-        <v>6058</v>
+        <v>6057</v>
       </c>
     </row>
     <row r="1901" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -51585,7 +51585,7 @@
         <v>3979</v>
       </c>
       <c r="E1901" t="s">
-        <v>6059</v>
+        <v>6058</v>
       </c>
     </row>
     <row r="1902" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -51602,7 +51602,7 @@
         <v>3980</v>
       </c>
       <c r="E1902" t="s">
-        <v>6060</v>
+        <v>6059</v>
       </c>
     </row>
     <row r="1903" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -51619,7 +51619,7 @@
         <v>3981</v>
       </c>
       <c r="E1903" t="s">
-        <v>6061</v>
+        <v>6060</v>
       </c>
     </row>
     <row r="1904" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -51636,7 +51636,7 @@
         <v>3982</v>
       </c>
       <c r="E1904" t="s">
-        <v>6062</v>
+        <v>6061</v>
       </c>
     </row>
     <row r="1905" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -51653,7 +51653,7 @@
         <v>3983</v>
       </c>
       <c r="E1905" t="s">
-        <v>6063</v>
+        <v>6062</v>
       </c>
     </row>
     <row r="1906" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -51670,7 +51670,7 @@
         <v>3984</v>
       </c>
       <c r="E1906" t="s">
-        <v>6064</v>
+        <v>6063</v>
       </c>
     </row>
     <row r="1907" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -51687,7 +51687,7 @@
         <v>3985</v>
       </c>
       <c r="E1907" t="s">
-        <v>6065</v>
+        <v>6064</v>
       </c>
     </row>
     <row r="1908" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -51704,7 +51704,7 @@
         <v>3986</v>
       </c>
       <c r="E1908" t="s">
-        <v>6066</v>
+        <v>6065</v>
       </c>
     </row>
     <row r="1909" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -51721,7 +51721,7 @@
         <v>3987</v>
       </c>
       <c r="E1909" t="s">
-        <v>6067</v>
+        <v>6066</v>
       </c>
     </row>
     <row r="1910" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -51738,7 +51738,7 @@
         <v>3988</v>
       </c>
       <c r="E1910" t="s">
-        <v>6068</v>
+        <v>6067</v>
       </c>
     </row>
     <row r="1911" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -51755,7 +51755,7 @@
         <v>3989</v>
       </c>
       <c r="E1911" t="s">
-        <v>6069</v>
+        <v>6068</v>
       </c>
     </row>
     <row r="1912" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -51772,7 +51772,7 @@
         <v>3990</v>
       </c>
       <c r="E1912" t="s">
-        <v>6070</v>
+        <v>6069</v>
       </c>
     </row>
     <row r="1913" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -51789,7 +51789,7 @@
         <v>3991</v>
       </c>
       <c r="E1913" t="s">
-        <v>6071</v>
+        <v>6070</v>
       </c>
     </row>
     <row r="1914" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -51806,7 +51806,7 @@
         <v>3992</v>
       </c>
       <c r="E1914" t="s">
-        <v>6072</v>
+        <v>6071</v>
       </c>
     </row>
     <row r="1915" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -51823,7 +51823,7 @@
         <v>3993</v>
       </c>
       <c r="E1915" t="s">
-        <v>6073</v>
+        <v>6072</v>
       </c>
     </row>
     <row r="1916" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -51840,7 +51840,7 @@
         <v>3994</v>
       </c>
       <c r="E1916" t="s">
-        <v>6074</v>
+        <v>6073</v>
       </c>
     </row>
     <row r="1917" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -51857,7 +51857,7 @@
         <v>3995</v>
       </c>
       <c r="E1917" t="s">
-        <v>6075</v>
+        <v>6074</v>
       </c>
     </row>
     <row r="1918" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -51874,7 +51874,7 @@
         <v>3996</v>
       </c>
       <c r="E1918" t="s">
-        <v>6076</v>
+        <v>6075</v>
       </c>
     </row>
     <row r="1919" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -51891,7 +51891,7 @@
         <v>3997</v>
       </c>
       <c r="E1919" t="s">
-        <v>6077</v>
+        <v>6076</v>
       </c>
     </row>
     <row r="1920" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -51908,7 +51908,7 @@
         <v>3998</v>
       </c>
       <c r="E1920" t="s">
-        <v>6078</v>
+        <v>6077</v>
       </c>
     </row>
     <row r="1921" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -51925,7 +51925,7 @@
         <v>3999</v>
       </c>
       <c r="E1921" t="s">
-        <v>6079</v>
+        <v>6078</v>
       </c>
     </row>
     <row r="1922" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -51942,7 +51942,7 @@
         <v>4000</v>
       </c>
       <c r="E1922" t="s">
-        <v>6080</v>
+        <v>6079</v>
       </c>
     </row>
     <row r="1923" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -51959,7 +51959,7 @@
         <v>4001</v>
       </c>
       <c r="E1923" t="s">
-        <v>6081</v>
+        <v>6080</v>
       </c>
     </row>
     <row r="1924" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -51976,7 +51976,7 @@
         <v>4002</v>
       </c>
       <c r="E1924" t="s">
-        <v>6082</v>
+        <v>6081</v>
       </c>
     </row>
     <row r="1925" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -51993,7 +51993,7 @@
         <v>4003</v>
       </c>
       <c r="E1925" t="s">
-        <v>6083</v>
+        <v>6082</v>
       </c>
     </row>
     <row r="1926" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -52010,7 +52010,7 @@
         <v>4004</v>
       </c>
       <c r="E1926" t="s">
-        <v>6084</v>
+        <v>6083</v>
       </c>
     </row>
     <row r="1927" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -52027,7 +52027,7 @@
         <v>4005</v>
       </c>
       <c r="E1927" t="s">
-        <v>6085</v>
+        <v>6084</v>
       </c>
     </row>
     <row r="1928" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -52044,7 +52044,7 @@
         <v>4006</v>
       </c>
       <c r="E1928" t="s">
-        <v>6086</v>
+        <v>6085</v>
       </c>
     </row>
     <row r="1929" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -52061,7 +52061,7 @@
         <v>4007</v>
       </c>
       <c r="E1929" t="s">
-        <v>6087</v>
+        <v>6086</v>
       </c>
     </row>
     <row r="1930" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -52078,7 +52078,7 @@
         <v>4008</v>
       </c>
       <c r="E1930" t="s">
-        <v>6088</v>
+        <v>6087</v>
       </c>
     </row>
     <row r="1931" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -52095,7 +52095,7 @@
         <v>4009</v>
       </c>
       <c r="E1931" t="s">
-        <v>6089</v>
+        <v>6088</v>
       </c>
     </row>
     <row r="1932" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -52112,7 +52112,7 @@
         <v>4010</v>
       </c>
       <c r="E1932" t="s">
-        <v>6090</v>
+        <v>6089</v>
       </c>
     </row>
     <row r="1933" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -52129,7 +52129,7 @@
         <v>4011</v>
       </c>
       <c r="E1933" t="s">
-        <v>6091</v>
+        <v>6090</v>
       </c>
     </row>
     <row r="1934" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -52146,7 +52146,7 @@
         <v>4012</v>
       </c>
       <c r="E1934" t="s">
-        <v>6092</v>
+        <v>6091</v>
       </c>
     </row>
     <row r="1935" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -52163,7 +52163,7 @@
         <v>4013</v>
       </c>
       <c r="E1935" t="s">
-        <v>6093</v>
+        <v>6092</v>
       </c>
     </row>
     <row r="1936" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -52180,7 +52180,7 @@
         <v>4014</v>
       </c>
       <c r="E1936" t="s">
-        <v>6094</v>
+        <v>6093</v>
       </c>
     </row>
     <row r="1937" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -52194,10 +52194,10 @@
         <v>6611</v>
       </c>
       <c r="D1937" s="2" t="s">
+        <v>6260</v>
+      </c>
+      <c r="E1937" t="s">
         <v>6261</v>
-      </c>
-      <c r="E1937" t="s">
-        <v>6262</v>
       </c>
     </row>
     <row r="1938" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -52214,7 +52214,7 @@
         <v>4015</v>
       </c>
       <c r="E1938" t="s">
-        <v>6095</v>
+        <v>6094</v>
       </c>
     </row>
     <row r="1939" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -52231,7 +52231,7 @@
         <v>4016</v>
       </c>
       <c r="E1939" t="s">
-        <v>6096</v>
+        <v>6095</v>
       </c>
     </row>
     <row r="1940" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -52248,7 +52248,7 @@
         <v>4017</v>
       </c>
       <c r="E1940" t="s">
-        <v>6097</v>
+        <v>6096</v>
       </c>
     </row>
     <row r="1941" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -52265,7 +52265,7 @@
         <v>4018</v>
       </c>
       <c r="E1941" t="s">
-        <v>6098</v>
+        <v>6097</v>
       </c>
     </row>
     <row r="1942" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -52282,7 +52282,7 @@
         <v>4019</v>
       </c>
       <c r="E1942" t="s">
-        <v>6099</v>
+        <v>6098</v>
       </c>
     </row>
     <row r="1943" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -52299,7 +52299,7 @@
         <v>4020</v>
       </c>
       <c r="E1943" t="s">
-        <v>6100</v>
+        <v>6099</v>
       </c>
     </row>
     <row r="1944" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -52316,7 +52316,7 @@
         <v>4021</v>
       </c>
       <c r="E1944" t="s">
-        <v>6101</v>
+        <v>6100</v>
       </c>
     </row>
     <row r="1945" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -52333,7 +52333,7 @@
         <v>4022</v>
       </c>
       <c r="E1945" t="s">
-        <v>6102</v>
+        <v>6101</v>
       </c>
     </row>
     <row r="1946" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -52350,7 +52350,7 @@
         <v>4023</v>
       </c>
       <c r="E1946" t="s">
-        <v>6103</v>
+        <v>6102</v>
       </c>
     </row>
     <row r="1947" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -52367,7 +52367,7 @@
         <v>4024</v>
       </c>
       <c r="E1947" t="s">
-        <v>6104</v>
+        <v>6103</v>
       </c>
     </row>
     <row r="1948" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -52384,7 +52384,7 @@
         <v>4025</v>
       </c>
       <c r="E1948" t="s">
-        <v>6105</v>
+        <v>6104</v>
       </c>
     </row>
     <row r="1949" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -52401,7 +52401,7 @@
         <v>4026</v>
       </c>
       <c r="E1949" t="s">
-        <v>6106</v>
+        <v>6105</v>
       </c>
     </row>
     <row r="1950" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -52418,7 +52418,7 @@
         <v>4027</v>
       </c>
       <c r="E1950" t="s">
-        <v>6107</v>
+        <v>6106</v>
       </c>
     </row>
     <row r="1951" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -52435,7 +52435,7 @@
         <v>4028</v>
       </c>
       <c r="E1951" t="s">
-        <v>6108</v>
+        <v>6107</v>
       </c>
     </row>
     <row r="1952" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -52452,7 +52452,7 @@
         <v>4029</v>
       </c>
       <c r="E1952" t="s">
-        <v>6109</v>
+        <v>6108</v>
       </c>
     </row>
     <row r="1953" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -52469,7 +52469,7 @@
         <v>4030</v>
       </c>
       <c r="E1953" t="s">
-        <v>6110</v>
+        <v>6109</v>
       </c>
     </row>
     <row r="1954" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -52486,7 +52486,7 @@
         <v>4031</v>
       </c>
       <c r="E1954" t="s">
-        <v>6111</v>
+        <v>6110</v>
       </c>
     </row>
     <row r="1955" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -52503,7 +52503,7 @@
         <v>4032</v>
       </c>
       <c r="E1955" t="s">
-        <v>6112</v>
+        <v>6111</v>
       </c>
     </row>
     <row r="1956" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -52520,7 +52520,7 @@
         <v>4033</v>
       </c>
       <c r="E1956" t="s">
-        <v>6113</v>
+        <v>6112</v>
       </c>
     </row>
     <row r="1957" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -52537,7 +52537,7 @@
         <v>4034</v>
       </c>
       <c r="E1957" t="s">
-        <v>6114</v>
+        <v>6113</v>
       </c>
     </row>
     <row r="1958" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -52554,7 +52554,7 @@
         <v>4035</v>
       </c>
       <c r="E1958" t="s">
-        <v>6115</v>
+        <v>6114</v>
       </c>
     </row>
     <row r="1959" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -52571,7 +52571,7 @@
         <v>4036</v>
       </c>
       <c r="E1959" t="s">
-        <v>6116</v>
+        <v>6115</v>
       </c>
     </row>
     <row r="1960" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -52588,7 +52588,7 @@
         <v>4037</v>
       </c>
       <c r="E1960" t="s">
-        <v>6117</v>
+        <v>6116</v>
       </c>
     </row>
     <row r="1961" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -52605,7 +52605,7 @@
         <v>4038</v>
       </c>
       <c r="E1961" t="s">
-        <v>6118</v>
+        <v>6117</v>
       </c>
     </row>
     <row r="1962" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -52622,7 +52622,7 @@
         <v>4039</v>
       </c>
       <c r="E1962" t="s">
-        <v>6119</v>
+        <v>6118</v>
       </c>
     </row>
     <row r="1963" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -52639,7 +52639,7 @@
         <v>4040</v>
       </c>
       <c r="E1963" t="s">
-        <v>6120</v>
+        <v>6119</v>
       </c>
     </row>
     <row r="1964" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -52656,7 +52656,7 @@
         <v>4041</v>
       </c>
       <c r="E1964" t="s">
-        <v>6121</v>
+        <v>6120</v>
       </c>
     </row>
     <row r="1965" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -52673,7 +52673,7 @@
         <v>4042</v>
       </c>
       <c r="E1965" t="s">
-        <v>6122</v>
+        <v>6121</v>
       </c>
     </row>
     <row r="1966" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -52690,7 +52690,7 @@
         <v>4043</v>
       </c>
       <c r="E1966" t="s">
-        <v>6123</v>
+        <v>6122</v>
       </c>
     </row>
     <row r="1967" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -52707,7 +52707,7 @@
         <v>4044</v>
       </c>
       <c r="E1967" t="s">
-        <v>6124</v>
+        <v>6123</v>
       </c>
     </row>
     <row r="1968" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -52724,7 +52724,7 @@
         <v>4045</v>
       </c>
       <c r="E1968" t="s">
-        <v>6125</v>
+        <v>6124</v>
       </c>
     </row>
     <row r="1969" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -52741,7 +52741,7 @@
         <v>4046</v>
       </c>
       <c r="E1969" t="s">
-        <v>6126</v>
+        <v>6125</v>
       </c>
     </row>
     <row r="1970" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -52758,7 +52758,7 @@
         <v>4047</v>
       </c>
       <c r="E1970" t="s">
-        <v>6127</v>
+        <v>6126</v>
       </c>
     </row>
     <row r="1971" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -52775,7 +52775,7 @@
         <v>4048</v>
       </c>
       <c r="E1971" t="s">
-        <v>6128</v>
+        <v>6127</v>
       </c>
     </row>
     <row r="1972" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -52792,7 +52792,7 @@
         <v>4049</v>
       </c>
       <c r="E1972" t="s">
-        <v>6129</v>
+        <v>6128</v>
       </c>
     </row>
     <row r="1973" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -52809,7 +52809,7 @@
         <v>4050</v>
       </c>
       <c r="E1973" t="s">
-        <v>6130</v>
+        <v>6129</v>
       </c>
     </row>
     <row r="1974" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -52826,7 +52826,7 @@
         <v>4051</v>
       </c>
       <c r="E1974" t="s">
-        <v>6131</v>
+        <v>6130</v>
       </c>
     </row>
     <row r="1975" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -52843,7 +52843,7 @@
         <v>4052</v>
       </c>
       <c r="E1975" t="s">
-        <v>6132</v>
+        <v>6131</v>
       </c>
     </row>
     <row r="1976" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -52860,7 +52860,7 @@
         <v>4053</v>
       </c>
       <c r="E1976" t="s">
-        <v>6133</v>
+        <v>6132</v>
       </c>
     </row>
     <row r="1977" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -52877,7 +52877,7 @@
         <v>4054</v>
       </c>
       <c r="E1977" t="s">
-        <v>6134</v>
+        <v>6133</v>
       </c>
     </row>
     <row r="1978" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -52894,7 +52894,7 @@
         <v>4055</v>
       </c>
       <c r="E1978" t="s">
-        <v>6135</v>
+        <v>6134</v>
       </c>
     </row>
     <row r="1979" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -52911,7 +52911,7 @@
         <v>4056</v>
       </c>
       <c r="E1979" t="s">
-        <v>6136</v>
+        <v>6135</v>
       </c>
     </row>
     <row r="1980" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -52928,7 +52928,7 @@
         <v>4057</v>
       </c>
       <c r="E1980" t="s">
-        <v>6137</v>
+        <v>6136</v>
       </c>
     </row>
     <row r="1981" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -52945,7 +52945,7 @@
         <v>4058</v>
       </c>
       <c r="E1981" t="s">
-        <v>6138</v>
+        <v>6137</v>
       </c>
     </row>
     <row r="1982" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -52962,7 +52962,7 @@
         <v>4059</v>
       </c>
       <c r="E1982" t="s">
-        <v>6139</v>
+        <v>6138</v>
       </c>
     </row>
     <row r="1983" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -52979,7 +52979,7 @@
         <v>4060</v>
       </c>
       <c r="E1983" t="s">
-        <v>6140</v>
+        <v>6139</v>
       </c>
     </row>
     <row r="1984" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -52996,7 +52996,7 @@
         <v>4061</v>
       </c>
       <c r="E1984" t="s">
-        <v>6141</v>
+        <v>6140</v>
       </c>
     </row>
     <row r="1985" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -53013,7 +53013,7 @@
         <v>4062</v>
       </c>
       <c r="E1985" t="s">
-        <v>6142</v>
+        <v>6141</v>
       </c>
     </row>
     <row r="1986" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -53030,7 +53030,7 @@
         <v>4063</v>
       </c>
       <c r="E1986" t="s">
-        <v>6143</v>
+        <v>6142</v>
       </c>
     </row>
     <row r="1987" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -53047,7 +53047,7 @@
         <v>4064</v>
       </c>
       <c r="E1987" t="s">
-        <v>6144</v>
+        <v>6143</v>
       </c>
     </row>
     <row r="1988" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -53064,7 +53064,7 @@
         <v>4065</v>
       </c>
       <c r="E1988" t="s">
-        <v>6145</v>
+        <v>6144</v>
       </c>
     </row>
     <row r="1989" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -53081,7 +53081,7 @@
         <v>4066</v>
       </c>
       <c r="E1989" t="s">
-        <v>6146</v>
+        <v>6145</v>
       </c>
     </row>
     <row r="1990" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -53098,7 +53098,7 @@
         <v>4067</v>
       </c>
       <c r="E1990" t="s">
-        <v>6147</v>
+        <v>6146</v>
       </c>
     </row>
     <row r="1991" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -53115,7 +53115,7 @@
         <v>4068</v>
       </c>
       <c r="E1991" t="s">
-        <v>6148</v>
+        <v>6147</v>
       </c>
     </row>
     <row r="1992" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -53132,7 +53132,7 @@
         <v>4069</v>
       </c>
       <c r="E1992" t="s">
-        <v>6149</v>
+        <v>6148</v>
       </c>
     </row>
     <row r="1993" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -53149,7 +53149,7 @@
         <v>4070</v>
       </c>
       <c r="E1993" t="s">
-        <v>6150</v>
+        <v>6149</v>
       </c>
     </row>
     <row r="1994" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -53166,7 +53166,7 @@
         <v>4071</v>
       </c>
       <c r="E1994" t="s">
-        <v>6151</v>
+        <v>6150</v>
       </c>
     </row>
     <row r="1995" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -53183,7 +53183,7 @@
         <v>4072</v>
       </c>
       <c r="E1995" t="s">
-        <v>6152</v>
+        <v>6151</v>
       </c>
     </row>
     <row r="1996" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -53200,7 +53200,7 @@
         <v>4073</v>
       </c>
       <c r="E1996" t="s">
-        <v>6153</v>
+        <v>6152</v>
       </c>
     </row>
     <row r="1997" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -53217,7 +53217,7 @@
         <v>4074</v>
       </c>
       <c r="E1997" t="s">
-        <v>6154</v>
+        <v>6153</v>
       </c>
     </row>
     <row r="1998" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -53234,7 +53234,7 @@
         <v>4075</v>
       </c>
       <c r="E1998" t="s">
-        <v>6155</v>
+        <v>6154</v>
       </c>
     </row>
     <row r="1999" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -53251,7 +53251,7 @@
         <v>4076</v>
       </c>
       <c r="E1999" t="s">
-        <v>6156</v>
+        <v>6155</v>
       </c>
     </row>
     <row r="2000" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -53268,7 +53268,7 @@
         <v>4077</v>
       </c>
       <c r="E2000" t="s">
-        <v>6157</v>
+        <v>6156</v>
       </c>
     </row>
     <row r="2001" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -53285,7 +53285,7 @@
         <v>4078</v>
       </c>
       <c r="E2001" t="s">
-        <v>6158</v>
+        <v>6157</v>
       </c>
     </row>
     <row r="2002" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -53302,7 +53302,7 @@
         <v>4079</v>
       </c>
       <c r="E2002" t="s">
-        <v>6159</v>
+        <v>6158</v>
       </c>
     </row>
     <row r="2003" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -53319,7 +53319,7 @@
         <v>4080</v>
       </c>
       <c r="E2003" t="s">
-        <v>6160</v>
+        <v>6159</v>
       </c>
     </row>
     <row r="2004" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -53336,7 +53336,7 @@
         <v>4081</v>
       </c>
       <c r="E2004" t="s">
-        <v>6161</v>
+        <v>6160</v>
       </c>
     </row>
     <row r="2005" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -53353,7 +53353,7 @@
         <v>4082</v>
       </c>
       <c r="E2005" t="s">
-        <v>6162</v>
+        <v>6161</v>
       </c>
     </row>
     <row r="2006" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -53370,7 +53370,7 @@
         <v>4083</v>
       </c>
       <c r="E2006" t="s">
-        <v>6163</v>
+        <v>6162</v>
       </c>
     </row>
     <row r="2007" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -53387,7 +53387,7 @@
         <v>4084</v>
       </c>
       <c r="E2007" t="s">
-        <v>6164</v>
+        <v>6163</v>
       </c>
     </row>
     <row r="2008" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -53404,7 +53404,7 @@
         <v>4085</v>
       </c>
       <c r="E2008" t="s">
-        <v>6165</v>
+        <v>6164</v>
       </c>
     </row>
     <row r="2009" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -53421,7 +53421,7 @@
         <v>4086</v>
       </c>
       <c r="E2009" t="s">
-        <v>6166</v>
+        <v>6165</v>
       </c>
     </row>
     <row r="2010" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -53438,7 +53438,7 @@
         <v>4087</v>
       </c>
       <c r="E2010" t="s">
-        <v>6167</v>
+        <v>6166</v>
       </c>
     </row>
     <row r="2011" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -53455,7 +53455,7 @@
         <v>4088</v>
       </c>
       <c r="E2011" t="s">
-        <v>6168</v>
+        <v>6167</v>
       </c>
     </row>
     <row r="2012" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -53472,7 +53472,7 @@
         <v>4089</v>
       </c>
       <c r="E2012" t="s">
-        <v>6169</v>
+        <v>6168</v>
       </c>
     </row>
     <row r="2013" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -53489,7 +53489,7 @@
         <v>4090</v>
       </c>
       <c r="E2013" t="s">
-        <v>6170</v>
+        <v>6169</v>
       </c>
     </row>
     <row r="2014" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -53506,7 +53506,7 @@
         <v>4091</v>
       </c>
       <c r="E2014" t="s">
-        <v>6171</v>
+        <v>6170</v>
       </c>
     </row>
     <row r="2015" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -53523,7 +53523,7 @@
         <v>4092</v>
       </c>
       <c r="E2015" t="s">
-        <v>6172</v>
+        <v>6171</v>
       </c>
     </row>
     <row r="2016" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -53540,7 +53540,7 @@
         <v>4093</v>
       </c>
       <c r="E2016" t="s">
-        <v>6173</v>
+        <v>6172</v>
       </c>
     </row>
     <row r="2017" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -53557,7 +53557,7 @@
         <v>4094</v>
       </c>
       <c r="E2017" t="s">
-        <v>6174</v>
+        <v>6173</v>
       </c>
     </row>
     <row r="2018" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -53574,7 +53574,7 @@
         <v>4095</v>
       </c>
       <c r="E2018" t="s">
-        <v>6175</v>
+        <v>6174</v>
       </c>
     </row>
     <row r="2019" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -53591,7 +53591,7 @@
         <v>4096</v>
       </c>
       <c r="E2019" t="s">
-        <v>6176</v>
+        <v>6175</v>
       </c>
     </row>
     <row r="2020" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -53608,7 +53608,7 @@
         <v>4097</v>
       </c>
       <c r="E2020" t="s">
-        <v>6177</v>
+        <v>6176</v>
       </c>
     </row>
     <row r="2021" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -53625,7 +53625,7 @@
         <v>4098</v>
       </c>
       <c r="E2021" t="s">
-        <v>6178</v>
+        <v>6177</v>
       </c>
     </row>
     <row r="2022" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -53642,7 +53642,7 @@
         <v>4099</v>
       </c>
       <c r="E2022" t="s">
-        <v>6179</v>
+        <v>6178</v>
       </c>
     </row>
     <row r="2023" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -53659,7 +53659,7 @@
         <v>4100</v>
       </c>
       <c r="E2023" t="s">
-        <v>6180</v>
+        <v>6179</v>
       </c>
     </row>
     <row r="2024" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -53676,7 +53676,7 @@
         <v>4101</v>
       </c>
       <c r="E2024" t="s">
-        <v>6181</v>
+        <v>6180</v>
       </c>
     </row>
     <row r="2025" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -53693,7 +53693,7 @@
         <v>4102</v>
       </c>
       <c r="E2025" t="s">
-        <v>6182</v>
+        <v>6181</v>
       </c>
     </row>
     <row r="2026" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -53710,7 +53710,7 @@
         <v>4103</v>
       </c>
       <c r="E2026" t="s">
-        <v>6183</v>
+        <v>6182</v>
       </c>
     </row>
     <row r="2027" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -53727,7 +53727,7 @@
         <v>4104</v>
       </c>
       <c r="E2027" t="s">
-        <v>6184</v>
+        <v>6183</v>
       </c>
     </row>
     <row r="2028" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -53744,7 +53744,7 @@
         <v>4105</v>
       </c>
       <c r="E2028" t="s">
-        <v>6185</v>
+        <v>6184</v>
       </c>
     </row>
     <row r="2029" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -53761,7 +53761,7 @@
         <v>4106</v>
       </c>
       <c r="E2029" t="s">
-        <v>6186</v>
+        <v>6185</v>
       </c>
     </row>
     <row r="2030" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -53778,7 +53778,7 @@
         <v>4107</v>
       </c>
       <c r="E2030" t="s">
-        <v>6187</v>
+        <v>6186</v>
       </c>
     </row>
     <row r="2031" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -53795,7 +53795,7 @@
         <v>4108</v>
       </c>
       <c r="E2031" t="s">
-        <v>6188</v>
+        <v>6187</v>
       </c>
     </row>
     <row r="2032" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -53812,7 +53812,7 @@
         <v>4109</v>
       </c>
       <c r="E2032" t="s">
-        <v>6189</v>
+        <v>6188</v>
       </c>
     </row>
     <row r="2033" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -53829,7 +53829,7 @@
         <v>4110</v>
       </c>
       <c r="E2033" t="s">
-        <v>6190</v>
+        <v>6189</v>
       </c>
     </row>
     <row r="2034" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -53846,7 +53846,7 @@
         <v>4111</v>
       </c>
       <c r="E2034" t="s">
-        <v>6191</v>
+        <v>6190</v>
       </c>
     </row>
     <row r="2035" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -53863,7 +53863,7 @@
         <v>4112</v>
       </c>
       <c r="E2035" t="s">
-        <v>6192</v>
+        <v>6191</v>
       </c>
     </row>
     <row r="2036" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -53880,7 +53880,7 @@
         <v>4113</v>
       </c>
       <c r="E2036" t="s">
-        <v>6193</v>
+        <v>6192</v>
       </c>
     </row>
     <row r="2037" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -53897,7 +53897,7 @@
         <v>4114</v>
       </c>
       <c r="E2037" t="s">
-        <v>6194</v>
+        <v>6193</v>
       </c>
     </row>
     <row r="2038" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -53914,7 +53914,7 @@
         <v>4115</v>
       </c>
       <c r="E2038" t="s">
-        <v>6195</v>
+        <v>6194</v>
       </c>
     </row>
     <row r="2039" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -53931,7 +53931,7 @@
         <v>4116</v>
       </c>
       <c r="E2039" t="s">
-        <v>6196</v>
+        <v>6195</v>
       </c>
     </row>
     <row r="2040" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -53948,7 +53948,7 @@
         <v>4117</v>
       </c>
       <c r="E2040" t="s">
-        <v>6197</v>
+        <v>6196</v>
       </c>
     </row>
     <row r="2041" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -53965,7 +53965,7 @@
         <v>4118</v>
       </c>
       <c r="E2041" t="s">
-        <v>6198</v>
+        <v>6197</v>
       </c>
     </row>
     <row r="2042" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -53982,7 +53982,7 @@
         <v>4119</v>
       </c>
       <c r="E2042" t="s">
-        <v>6199</v>
+        <v>6198</v>
       </c>
     </row>
     <row r="2043" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -53999,7 +53999,7 @@
         <v>4120</v>
       </c>
       <c r="E2043" t="s">
-        <v>6200</v>
+        <v>6199</v>
       </c>
     </row>
     <row r="2044" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -54016,7 +54016,7 @@
         <v>4121</v>
       </c>
       <c r="E2044" t="s">
-        <v>6201</v>
+        <v>6200</v>
       </c>
     </row>
     <row r="2045" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -54033,7 +54033,7 @@
         <v>4122</v>
       </c>
       <c r="E2045" t="s">
-        <v>6202</v>
+        <v>6201</v>
       </c>
     </row>
     <row r="2046" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -54050,7 +54050,7 @@
         <v>4123</v>
       </c>
       <c r="E2046" t="s">
-        <v>6203</v>
+        <v>6202</v>
       </c>
     </row>
     <row r="2047" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -54067,7 +54067,7 @@
         <v>4124</v>
       </c>
       <c r="E2047" t="s">
-        <v>6204</v>
+        <v>6203</v>
       </c>
     </row>
     <row r="2048" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -54084,7 +54084,7 @@
         <v>4125</v>
       </c>
       <c r="E2048" t="s">
-        <v>6205</v>
+        <v>6204</v>
       </c>
     </row>
     <row r="2049" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -54098,7 +54098,7 @@
         <v>6942</v>
       </c>
       <c r="D2049" s="2" t="s">
-        <v>6259</v>
+        <v>6258</v>
       </c>
       <c r="E2049" t="s">
         <v>4993</v>
@@ -54118,7 +54118,7 @@
         <v>4126</v>
       </c>
       <c r="E2050" t="s">
-        <v>6206</v>
+        <v>6205</v>
       </c>
     </row>
     <row r="2051" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -54135,7 +54135,7 @@
         <v>4127</v>
       </c>
       <c r="E2051" t="s">
-        <v>6207</v>
+        <v>6206</v>
       </c>
     </row>
     <row r="2052" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -54152,7 +54152,7 @@
         <v>4128</v>
       </c>
       <c r="E2052" t="s">
-        <v>6208</v>
+        <v>6207</v>
       </c>
     </row>
     <row r="2053" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -54169,7 +54169,7 @@
         <v>4129</v>
       </c>
       <c r="E2053" t="s">
-        <v>6209</v>
+        <v>6208</v>
       </c>
     </row>
     <row r="2054" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -54186,7 +54186,7 @@
         <v>4130</v>
       </c>
       <c r="E2054" t="s">
-        <v>6210</v>
+        <v>6209</v>
       </c>
     </row>
     <row r="2055" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -54203,7 +54203,7 @@
         <v>4131</v>
       </c>
       <c r="E2055" t="s">
-        <v>6211</v>
+        <v>6210</v>
       </c>
     </row>
     <row r="2056" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -54220,7 +54220,7 @@
         <v>4132</v>
       </c>
       <c r="E2056" t="s">
-        <v>6212</v>
+        <v>6211</v>
       </c>
     </row>
     <row r="2057" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -54237,7 +54237,7 @@
         <v>4133</v>
       </c>
       <c r="E2057" t="s">
-        <v>6213</v>
+        <v>6212</v>
       </c>
     </row>
     <row r="2058" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -54254,7 +54254,7 @@
         <v>4134</v>
       </c>
       <c r="E2058" t="s">
-        <v>6214</v>
+        <v>6213</v>
       </c>
     </row>
     <row r="2059" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -54271,7 +54271,7 @@
         <v>4135</v>
       </c>
       <c r="E2059" t="s">
-        <v>6215</v>
+        <v>6214</v>
       </c>
     </row>
     <row r="2060" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -54288,7 +54288,7 @@
         <v>4136</v>
       </c>
       <c r="E2060" t="s">
-        <v>6216</v>
+        <v>6215</v>
       </c>
     </row>
     <row r="2061" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -54305,7 +54305,7 @@
         <v>4137</v>
       </c>
       <c r="E2061" t="s">
-        <v>6217</v>
+        <v>6216</v>
       </c>
     </row>
     <row r="2062" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -54322,7 +54322,7 @@
         <v>4138</v>
       </c>
       <c r="E2062" t="s">
-        <v>6218</v>
+        <v>6217</v>
       </c>
     </row>
     <row r="2063" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -54339,7 +54339,7 @@
         <v>4139</v>
       </c>
       <c r="E2063" t="s">
-        <v>6219</v>
+        <v>6218</v>
       </c>
     </row>
     <row r="2064" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -54356,7 +54356,7 @@
         <v>4140</v>
       </c>
       <c r="E2064" t="s">
-        <v>6220</v>
+        <v>6219</v>
       </c>
     </row>
     <row r="2065" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -54373,7 +54373,7 @@
         <v>4141</v>
       </c>
       <c r="E2065" t="s">
-        <v>6221</v>
+        <v>6220</v>
       </c>
     </row>
     <row r="2066" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -54390,7 +54390,7 @@
         <v>4142</v>
       </c>
       <c r="E2066" t="s">
-        <v>6222</v>
+        <v>6221</v>
       </c>
     </row>
     <row r="2067" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -54404,10 +54404,10 @@
         <v>6934</v>
       </c>
       <c r="D2067" s="2" t="s">
-        <v>6260</v>
+        <v>6259</v>
       </c>
       <c r="E2067" t="s">
-        <v>6218</v>
+        <v>6217</v>
       </c>
     </row>
     <row r="2068" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -54424,7 +54424,7 @@
         <v>4143</v>
       </c>
       <c r="E2068" t="s">
-        <v>6223</v>
+        <v>6222</v>
       </c>
     </row>
     <row r="2069" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -54441,7 +54441,7 @@
         <v>4144</v>
       </c>
       <c r="E2069" t="s">
-        <v>6224</v>
+        <v>6223</v>
       </c>
     </row>
     <row r="2070" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -54458,7 +54458,7 @@
         <v>4145</v>
       </c>
       <c r="E2070" t="s">
-        <v>6225</v>
+        <v>6224</v>
       </c>
     </row>
     <row r="2071" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -54475,7 +54475,7 @@
         <v>4146</v>
       </c>
       <c r="E2071" t="s">
-        <v>6226</v>
+        <v>6225</v>
       </c>
     </row>
     <row r="2072" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -54492,7 +54492,7 @@
         <v>4147</v>
       </c>
       <c r="E2072" t="s">
-        <v>6227</v>
+        <v>6226</v>
       </c>
     </row>
     <row r="2073" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -54509,7 +54509,7 @@
         <v>4148</v>
       </c>
       <c r="E2073" t="s">
-        <v>6228</v>
+        <v>6227</v>
       </c>
     </row>
     <row r="2074" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -54526,7 +54526,7 @@
         <v>4149</v>
       </c>
       <c r="E2074" t="s">
-        <v>6229</v>
+        <v>6228</v>
       </c>
     </row>
     <row r="2075" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -54543,7 +54543,7 @@
         <v>4150</v>
       </c>
       <c r="E2075" t="s">
-        <v>6230</v>
+        <v>6229</v>
       </c>
     </row>
     <row r="2076" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -54560,7 +54560,7 @@
         <v>4151</v>
       </c>
       <c r="E2076" t="s">
-        <v>6231</v>
+        <v>6230</v>
       </c>
     </row>
     <row r="2077" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -54577,7 +54577,7 @@
         <v>4152</v>
       </c>
       <c r="E2077" t="s">
-        <v>6232</v>
+        <v>6231</v>
       </c>
     </row>
     <row r="2078" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -54594,7 +54594,7 @@
         <v>4153</v>
       </c>
       <c r="E2078" t="s">
-        <v>6233</v>
+        <v>6232</v>
       </c>
     </row>
     <row r="2079" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -54611,7 +54611,7 @@
         <v>4154</v>
       </c>
       <c r="E2079" t="s">
-        <v>6234</v>
+        <v>6233</v>
       </c>
     </row>
     <row r="2080" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -54628,7 +54628,7 @@
         <v>4155</v>
       </c>
       <c r="E2080" t="s">
-        <v>6235</v>
+        <v>6234</v>
       </c>
     </row>
     <row r="2081" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -54645,7 +54645,7 @@
         <v>4156</v>
       </c>
       <c r="E2081" t="s">
-        <v>6236</v>
+        <v>6235</v>
       </c>
     </row>
     <row r="2082" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -54662,7 +54662,7 @@
         <v>4157</v>
       </c>
       <c r="E2082" t="s">
-        <v>6237</v>
+        <v>6236</v>
       </c>
     </row>
     <row r="2083" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -54679,7 +54679,7 @@
         <v>4158</v>
       </c>
       <c r="E2083" t="s">
-        <v>6238</v>
+        <v>6237</v>
       </c>
     </row>
     <row r="2084" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -54696,7 +54696,7 @@
         <v>4159</v>
       </c>
       <c r="E2084" t="s">
-        <v>6239</v>
+        <v>6238</v>
       </c>
     </row>
     <row r="2085" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -54713,7 +54713,7 @@
         <v>4160</v>
       </c>
       <c r="E2085" t="s">
-        <v>6240</v>
+        <v>6239</v>
       </c>
     </row>
     <row r="2086" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -54730,7 +54730,7 @@
         <v>4161</v>
       </c>
       <c r="E2086" t="s">
-        <v>6241</v>
+        <v>6240</v>
       </c>
     </row>
     <row r="2087" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -54747,7 +54747,7 @@
         <v>4162</v>
       </c>
       <c r="E2087" t="s">
-        <v>6242</v>
+        <v>6241</v>
       </c>
     </row>
     <row r="2088" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -54764,7 +54764,7 @@
         <v>4163</v>
       </c>
       <c r="E2088" t="s">
-        <v>6243</v>
+        <v>6242</v>
       </c>
     </row>
     <row r="2089" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -54781,7 +54781,7 @@
         <v>4164</v>
       </c>
       <c r="E2089" t="s">
-        <v>6244</v>
+        <v>6243</v>
       </c>
     </row>
     <row r="2090" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -54798,7 +54798,7 @@
         <v>4165</v>
       </c>
       <c r="E2090" t="s">
-        <v>6245</v>
+        <v>6244</v>
       </c>
     </row>
     <row r="2091" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -54815,7 +54815,7 @@
         <v>4166</v>
       </c>
       <c r="E2091" t="s">
-        <v>6246</v>
+        <v>6245</v>
       </c>
     </row>
     <row r="2092" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -54823,16 +54823,16 @@
         <v>80421</v>
       </c>
       <c r="B2092" s="5" t="s">
-        <v>6251</v>
+        <v>6250</v>
       </c>
       <c r="C2092" s="3">
         <v>6832</v>
       </c>
       <c r="D2092" s="2" t="s">
-        <v>6252</v>
+        <v>6251</v>
       </c>
       <c r="E2092" t="s">
-        <v>6247</v>
+        <v>6246</v>
       </c>
     </row>
     <row r="2093" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -54849,7 +54849,7 @@
         <v>4167</v>
       </c>
       <c r="E2093" t="s">
-        <v>6248</v>
+        <v>6247</v>
       </c>
     </row>
     <row r="2094" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -54866,7 +54866,7 @@
         <v>4168</v>
       </c>
       <c r="E2094" t="s">
-        <v>6249</v>
+        <v>6248</v>
       </c>
     </row>
     <row r="2095" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -54883,7 +54883,7 @@
         <v>4169</v>
       </c>
       <c r="E2095" t="s">
-        <v>6250</v>
+        <v>6249</v>
       </c>
     </row>
   </sheetData>
@@ -56977,6 +56977,7 @@
     <hyperlink ref="D3" r:id="rId2086" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
     <hyperlink ref="D2" r:id="rId2087" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
     <hyperlink ref="D1862" r:id="rId2088" xr:uid="{4F6A1E72-82F5-3547-8FD6-397C8C9B131F}"/>
+    <hyperlink ref="E1435" r:id="rId2089" xr:uid="{50EB4A6C-1119-2443-A10A-CCBEAC0D5643}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/gemeinden_XLSX.xlsx
+++ b/gemeinden_XLSX.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michaelhuber/Desktop/projects/gemeinde_scraper/github/oe_gemeinden/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B14BD1C9-9BD0-1646-90D8-6F610F93EF52}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B84C8FF-4D46-DD49-B521-25C92774327E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="12220" windowWidth="19200" windowHeight="11780" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19200" yWindow="12220" windowWidth="19200" windowHeight="11780" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18691,9 +18691,6 @@
     <t>gemeinde@wolfurt.at</t>
   </si>
   <si>
-    <t>stadt_@dornbirn.at</t>
-  </si>
-  <si>
     <t>stadt@hohenems.at</t>
   </si>
   <si>
@@ -18824,6 +18821,9 @@
   </si>
   <si>
     <t>buergermeisterin.kahr@stadt.graz.at</t>
+  </si>
+  <si>
+    <t>stadt@dornbirn.at</t>
   </si>
 </sst>
 </file>
@@ -19262,8 +19262,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E2095"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1424" zoomScale="90" workbookViewId="0">
-      <selection activeCell="E1435" sqref="E1435"/>
+    <sheetView tabSelected="1" topLeftCell="A1882" zoomScale="90" workbookViewId="0">
+      <selection activeCell="E2069" sqref="E2069"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -19279,13 +19279,13 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>6263</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>6264</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>6265</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>6266</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -28632,7 +28632,7 @@
         <v>3622</v>
       </c>
       <c r="D551" s="2" t="s">
-        <v>6252</v>
+        <v>6251</v>
       </c>
       <c r="E551" t="s">
         <v>4401</v>
@@ -33409,10 +33409,10 @@
         <v>2851</v>
       </c>
       <c r="D832" s="2" t="s">
+        <v>6255</v>
+      </c>
+      <c r="E832" t="s">
         <v>6256</v>
-      </c>
-      <c r="E832" t="s">
-        <v>6257</v>
       </c>
     </row>
     <row r="833" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -34984,7 +34984,7 @@
         <v>40445</v>
       </c>
       <c r="B925" s="5" t="s">
-        <v>6253</v>
+        <v>6252</v>
       </c>
       <c r="C925" s="3">
         <v>5122</v>
@@ -43663,7 +43663,7 @@
         <v>3514</v>
       </c>
       <c r="E1435" t="s">
-        <v>6267</v>
+        <v>6266</v>
       </c>
     </row>
     <row r="1436" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -44249,7 +44249,7 @@
         <v>60651</v>
       </c>
       <c r="B1470" s="5" t="s">
-        <v>6254</v>
+        <v>6253</v>
       </c>
       <c r="C1470" s="3">
         <v>8124</v>
@@ -45694,7 +45694,7 @@
         <v>61262</v>
       </c>
       <c r="B1555" s="5" t="s">
-        <v>6255</v>
+        <v>6254</v>
       </c>
       <c r="C1555" s="3">
         <v>8960</v>
@@ -50919,10 +50919,10 @@
         <v>6528</v>
       </c>
       <c r="D1862" s="2" t="s">
+        <v>6261</v>
+      </c>
+      <c r="E1862" t="s">
         <v>6262</v>
-      </c>
-      <c r="E1862" t="s">
-        <v>6263</v>
       </c>
     </row>
     <row r="1863" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -52194,10 +52194,10 @@
         <v>6611</v>
       </c>
       <c r="D1937" s="2" t="s">
+        <v>6259</v>
+      </c>
+      <c r="E1937" t="s">
         <v>6260</v>
-      </c>
-      <c r="E1937" t="s">
-        <v>6261</v>
       </c>
     </row>
     <row r="1938" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -54098,7 +54098,7 @@
         <v>6942</v>
       </c>
       <c r="D2049" s="2" t="s">
-        <v>6258</v>
+        <v>6257</v>
       </c>
       <c r="E2049" t="s">
         <v>4993</v>
@@ -54404,7 +54404,7 @@
         <v>6934</v>
       </c>
       <c r="D2067" s="2" t="s">
-        <v>6259</v>
+        <v>6258</v>
       </c>
       <c r="E2067" t="s">
         <v>6217</v>
@@ -54441,7 +54441,7 @@
         <v>4144</v>
       </c>
       <c r="E2069" t="s">
-        <v>6223</v>
+        <v>6267</v>
       </c>
     </row>
     <row r="2070" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -54458,7 +54458,7 @@
         <v>4145</v>
       </c>
       <c r="E2070" t="s">
-        <v>6224</v>
+        <v>6223</v>
       </c>
     </row>
     <row r="2071" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -54475,7 +54475,7 @@
         <v>4146</v>
       </c>
       <c r="E2071" t="s">
-        <v>6225</v>
+        <v>6224</v>
       </c>
     </row>
     <row r="2072" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -54492,7 +54492,7 @@
         <v>4147</v>
       </c>
       <c r="E2072" t="s">
-        <v>6226</v>
+        <v>6225</v>
       </c>
     </row>
     <row r="2073" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -54509,7 +54509,7 @@
         <v>4148</v>
       </c>
       <c r="E2073" t="s">
-        <v>6227</v>
+        <v>6226</v>
       </c>
     </row>
     <row r="2074" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -54526,7 +54526,7 @@
         <v>4149</v>
       </c>
       <c r="E2074" t="s">
-        <v>6228</v>
+        <v>6227</v>
       </c>
     </row>
     <row r="2075" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -54543,7 +54543,7 @@
         <v>4150</v>
       </c>
       <c r="E2075" t="s">
-        <v>6229</v>
+        <v>6228</v>
       </c>
     </row>
     <row r="2076" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -54560,7 +54560,7 @@
         <v>4151</v>
       </c>
       <c r="E2076" t="s">
-        <v>6230</v>
+        <v>6229</v>
       </c>
     </row>
     <row r="2077" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -54577,7 +54577,7 @@
         <v>4152</v>
       </c>
       <c r="E2077" t="s">
-        <v>6231</v>
+        <v>6230</v>
       </c>
     </row>
     <row r="2078" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -54594,7 +54594,7 @@
         <v>4153</v>
       </c>
       <c r="E2078" t="s">
-        <v>6232</v>
+        <v>6231</v>
       </c>
     </row>
     <row r="2079" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -54611,7 +54611,7 @@
         <v>4154</v>
       </c>
       <c r="E2079" t="s">
-        <v>6233</v>
+        <v>6232</v>
       </c>
     </row>
     <row r="2080" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -54628,7 +54628,7 @@
         <v>4155</v>
       </c>
       <c r="E2080" t="s">
-        <v>6234</v>
+        <v>6233</v>
       </c>
     </row>
     <row r="2081" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -54645,7 +54645,7 @@
         <v>4156</v>
       </c>
       <c r="E2081" t="s">
-        <v>6235</v>
+        <v>6234</v>
       </c>
     </row>
     <row r="2082" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -54662,7 +54662,7 @@
         <v>4157</v>
       </c>
       <c r="E2082" t="s">
-        <v>6236</v>
+        <v>6235</v>
       </c>
     </row>
     <row r="2083" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -54679,7 +54679,7 @@
         <v>4158</v>
       </c>
       <c r="E2083" t="s">
-        <v>6237</v>
+        <v>6236</v>
       </c>
     </row>
     <row r="2084" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -54696,7 +54696,7 @@
         <v>4159</v>
       </c>
       <c r="E2084" t="s">
-        <v>6238</v>
+        <v>6237</v>
       </c>
     </row>
     <row r="2085" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -54713,7 +54713,7 @@
         <v>4160</v>
       </c>
       <c r="E2085" t="s">
-        <v>6239</v>
+        <v>6238</v>
       </c>
     </row>
     <row r="2086" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -54730,7 +54730,7 @@
         <v>4161</v>
       </c>
       <c r="E2086" t="s">
-        <v>6240</v>
+        <v>6239</v>
       </c>
     </row>
     <row r="2087" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -54747,7 +54747,7 @@
         <v>4162</v>
       </c>
       <c r="E2087" t="s">
-        <v>6241</v>
+        <v>6240</v>
       </c>
     </row>
     <row r="2088" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -54764,7 +54764,7 @@
         <v>4163</v>
       </c>
       <c r="E2088" t="s">
-        <v>6242</v>
+        <v>6241</v>
       </c>
     </row>
     <row r="2089" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -54781,7 +54781,7 @@
         <v>4164</v>
       </c>
       <c r="E2089" t="s">
-        <v>6243</v>
+        <v>6242</v>
       </c>
     </row>
     <row r="2090" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -54798,7 +54798,7 @@
         <v>4165</v>
       </c>
       <c r="E2090" t="s">
-        <v>6244</v>
+        <v>6243</v>
       </c>
     </row>
     <row r="2091" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -54815,7 +54815,7 @@
         <v>4166</v>
       </c>
       <c r="E2091" t="s">
-        <v>6245</v>
+        <v>6244</v>
       </c>
     </row>
     <row r="2092" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -54823,16 +54823,16 @@
         <v>80421</v>
       </c>
       <c r="B2092" s="5" t="s">
-        <v>6250</v>
+        <v>6249</v>
       </c>
       <c r="C2092" s="3">
         <v>6832</v>
       </c>
       <c r="D2092" s="2" t="s">
-        <v>6251</v>
+        <v>6250</v>
       </c>
       <c r="E2092" t="s">
-        <v>6246</v>
+        <v>6245</v>
       </c>
     </row>
     <row r="2093" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -54849,7 +54849,7 @@
         <v>4167</v>
       </c>
       <c r="E2093" t="s">
-        <v>6247</v>
+        <v>6246</v>
       </c>
     </row>
     <row r="2094" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -54866,7 +54866,7 @@
         <v>4168</v>
       </c>
       <c r="E2094" t="s">
-        <v>6248</v>
+        <v>6247</v>
       </c>
     </row>
     <row r="2095" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -54883,7 +54883,7 @@
         <v>4169</v>
       </c>
       <c r="E2095" t="s">
-        <v>6249</v>
+        <v>6248</v>
       </c>
     </row>
   </sheetData>
@@ -56978,6 +56978,7 @@
     <hyperlink ref="D2" r:id="rId2087" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
     <hyperlink ref="D1862" r:id="rId2088" xr:uid="{4F6A1E72-82F5-3547-8FD6-397C8C9B131F}"/>
     <hyperlink ref="E1435" r:id="rId2089" xr:uid="{50EB4A6C-1119-2443-A10A-CCBEAC0D5643}"/>
+    <hyperlink ref="E2069" r:id="rId2090" xr:uid="{265332BF-8A2A-BA44-98F6-22007AEE8F46}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
